--- a/outputs-HGR-r202-archive/g__Veillonella_A_train.xlsx
+++ b/outputs-HGR-r202-archive/g__Veillonella_A_train.xlsx
@@ -503,7 +503,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F169"/>
+  <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1218,20 +1218,20 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_1.fasta</t>
+          <t>label_UMGS627_0.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.9855357679618126</v>
+        <v>0.9885033600994627</v>
       </c>
       <c r="C30" t="n">
-        <v>0.001825835545986562</v>
+        <v>0.0004399997401791252</v>
       </c>
       <c r="D30" t="n">
-        <v>0.01263839649220078</v>
+        <v>0.01105664016035816</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9855357679618126</v>
+        <v>0.9885033600994627</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1242,20 +1242,20 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_10.fasta</t>
+          <t>label_UMGS627_117.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.9886485216009164</v>
+        <v>0.9561145923819609</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0001715937919037417</v>
+        <v>0.02414384409445128</v>
       </c>
       <c r="D31" t="n">
-        <v>0.01117988460717989</v>
+        <v>0.01974156352358773</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9886485216009164</v>
+        <v>0.9561145923819609</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1266,20 +1266,20 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_104.fasta</t>
+          <t>label_UMGS627_12.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.9777663448710001</v>
+        <v>0.9627083091292175</v>
       </c>
       <c r="C32" t="n">
-        <v>0.004211812620154964</v>
+        <v>0.02754187628113305</v>
       </c>
       <c r="D32" t="n">
-        <v>0.01802184250884496</v>
+        <v>0.009749814589649373</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9777663448710001</v>
+        <v>0.9627083091292175</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1290,20 +1290,20 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_11.fasta</t>
+          <t>label_UMGS627_120.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.9867590700643069</v>
+        <v>0.9821425537810106</v>
       </c>
       <c r="C33" t="n">
-        <v>0.003249027508937202</v>
+        <v>0.007297154364034085</v>
       </c>
       <c r="D33" t="n">
-        <v>0.009991902426756048</v>
+        <v>0.01056029185495535</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9867590700643069</v>
+        <v>0.9821425537810106</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1314,20 +1314,20 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_128.fasta</t>
+          <t>label_UMGS627_124.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.9837823766864136</v>
+        <v>0.8742865434516455</v>
       </c>
       <c r="C34" t="n">
-        <v>0.006088695992102556</v>
+        <v>0.03387396337531915</v>
       </c>
       <c r="D34" t="n">
-        <v>0.01012892732148393</v>
+        <v>0.09183949317303534</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9837823766864136</v>
+        <v>0.8742865434516455</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1338,20 +1338,20 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_131.fasta</t>
+          <t>label_UMGS627_134.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.9314679506117692</v>
+        <v>0.9696145182946452</v>
       </c>
       <c r="C35" t="n">
-        <v>0.04805842696434304</v>
+        <v>0.004323392526790883</v>
       </c>
       <c r="D35" t="n">
-        <v>0.02047362242388773</v>
+        <v>0.02606208917856399</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9314679506117692</v>
+        <v>0.9696145182946452</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1362,20 +1362,20 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_138.fasta</t>
+          <t>label_UMGS627_136.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.9176385865078991</v>
+        <v>0.8952452935435036</v>
       </c>
       <c r="C36" t="n">
-        <v>0.07068329926202851</v>
+        <v>0.07671837369959104</v>
       </c>
       <c r="D36" t="n">
-        <v>0.01167811423007232</v>
+        <v>0.02803633275690544</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9176385865078991</v>
+        <v>0.8952452935435036</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1386,20 +1386,20 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_139.fasta</t>
+          <t>label_UMGS627_21.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.9592914066267008</v>
+        <v>0.989044336589443</v>
       </c>
       <c r="C37" t="n">
-        <v>0.03373925036063362</v>
+        <v>0.0001791487644803862</v>
       </c>
       <c r="D37" t="n">
-        <v>0.006969343012665535</v>
+        <v>0.01077651464607661</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9592914066267008</v>
+        <v>0.989044336589443</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1410,20 +1410,20 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_15.fasta</t>
+          <t>label_UMGS627_26.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.993061864648156</v>
+        <v>0.9859600858104679</v>
       </c>
       <c r="C38" t="n">
-        <v>7.102776518308043e-05</v>
+        <v>0.003055901465326554</v>
       </c>
       <c r="D38" t="n">
-        <v>0.00686710758666083</v>
+        <v>0.0109840127242056</v>
       </c>
       <c r="E38" t="n">
-        <v>0.993061864648156</v>
+        <v>0.9859600858104679</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1434,20 +1434,20 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_20.fasta</t>
+          <t>label_UMGS627_28.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.9320542279935013</v>
+        <v>0.9826457423247823</v>
       </c>
       <c r="C39" t="n">
-        <v>0.01243027611128302</v>
+        <v>0.000917025569767157</v>
       </c>
       <c r="D39" t="n">
-        <v>0.05551549589521555</v>
+        <v>0.01643723210545055</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9320542279935013</v>
+        <v>0.9826457423247823</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1458,20 +1458,20 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_22.fasta</t>
+          <t>label_UMGS627_37.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.9900062233215295</v>
+        <v>0.9886715319502578</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0002819271649946206</v>
+        <v>0.001585800098929839</v>
       </c>
       <c r="D40" t="n">
-        <v>0.009711849513475899</v>
+        <v>0.009742667950812436</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9900062233215295</v>
+        <v>0.9886715319502578</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1482,20 +1482,20 @@
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_27.fasta</t>
+          <t>label_UMGS627_43.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.9426627818316818</v>
+        <v>0.9853482907938937</v>
       </c>
       <c r="C41" t="n">
-        <v>0.005904216654864867</v>
+        <v>0.0006131022332983722</v>
       </c>
       <c r="D41" t="n">
-        <v>0.05143300151345329</v>
+        <v>0.01403860697280785</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9426627818316818</v>
+        <v>0.9853482907938937</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1506,20 +1506,20 @@
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_31.fasta</t>
+          <t>label_UMGS627_44.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.9720544111651543</v>
+        <v>0.9858833926901626</v>
       </c>
       <c r="C42" t="n">
-        <v>0.01228612292672</v>
+        <v>0.002293409857293456</v>
       </c>
       <c r="D42" t="n">
-        <v>0.01565946590812561</v>
+        <v>0.01182319745254393</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9720544111651543</v>
+        <v>0.9858833926901626</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1530,20 +1530,20 @@
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_32.fasta</t>
+          <t>label_UMGS627_47.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.9894569160155722</v>
+        <v>0.9837489140052202</v>
       </c>
       <c r="C43" t="n">
-        <v>0.002573185573161263</v>
+        <v>0.0007395117865488062</v>
       </c>
       <c r="D43" t="n">
-        <v>0.007969898411266611</v>
+        <v>0.01551157420823101</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9894569160155722</v>
+        <v>0.9837489140052202</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1554,20 +1554,20 @@
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_35.fasta</t>
+          <t>label_UMGS627_5.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.9221791236971059</v>
+        <v>0.9847766306721637</v>
       </c>
       <c r="C44" t="n">
-        <v>0.05064104309386203</v>
+        <v>0.001826118462900868</v>
       </c>
       <c r="D44" t="n">
-        <v>0.02717983320903204</v>
+        <v>0.01339725086493542</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9221791236971059</v>
+        <v>0.9847766306721637</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1578,20 +1578,20 @@
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_53.fasta</t>
+          <t>label_UMGS627_58.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.9944435833978412</v>
+        <v>0.9830369670599204</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0002148113952082281</v>
+        <v>0.00347834752982626</v>
       </c>
       <c r="D45" t="n">
-        <v>0.005341605206950573</v>
+        <v>0.01348468541025324</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9944435833978412</v>
+        <v>0.9830369670599204</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1602,20 +1602,20 @@
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_55.fasta</t>
+          <t>label_UMGS627_59.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.9886062566514531</v>
+        <v>0.9847271948578176</v>
       </c>
       <c r="C46" t="n">
-        <v>0.003351377691590988</v>
+        <v>0.000531968453706472</v>
       </c>
       <c r="D46" t="n">
-        <v>0.008042365656955975</v>
+        <v>0.014740836688476</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9886062566514531</v>
+        <v>0.9847271948578176</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1626,20 +1626,20 @@
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_60.fasta</t>
+          <t>label_UMGS627_64.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.9881165453105862</v>
+        <v>0.9832769870108128</v>
       </c>
       <c r="C47" t="n">
-        <v>0.003215376765993676</v>
+        <v>0.0008927131080116058</v>
       </c>
       <c r="D47" t="n">
-        <v>0.008668077923419937</v>
+        <v>0.01583029988117563</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9881165453105862</v>
+        <v>0.9832769870108128</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1650,20 +1650,20 @@
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_67.fasta</t>
+          <t>label_UMGS627_74.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.9912450815592682</v>
+        <v>0.9774862886600278</v>
       </c>
       <c r="C48" t="n">
-        <v>0.001363403551938283</v>
+        <v>0.006810322783670148</v>
       </c>
       <c r="D48" t="n">
-        <v>0.007391514888793594</v>
+        <v>0.01570338855630189</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9912450815592682</v>
+        <v>0.9774862886600278</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1674,20 +1674,20 @@
     <row r="49">
       <c r="A49" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_77.fasta</t>
+          <t>label_UMGS627_75.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.9942710723594462</v>
+        <v>0.9858535983264797</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0003834210913304955</v>
+        <v>0.001718527837743325</v>
       </c>
       <c r="D49" t="n">
-        <v>0.005345506549223308</v>
+        <v>0.01242787383577702</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9942710723594462</v>
+        <v>0.9858535983264797</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1698,20 +1698,20 @@
     <row r="50">
       <c r="A50" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_85.fasta</t>
+          <t>label_UMGS627_78.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.9852349870328551</v>
+        <v>0.9796502304414312</v>
       </c>
       <c r="C50" t="n">
-        <v>0.003525572770045162</v>
+        <v>0.003923608452380109</v>
       </c>
       <c r="D50" t="n">
-        <v>0.01123944019709972</v>
+        <v>0.01642616110618867</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9852349870328551</v>
+        <v>0.9796502304414312</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -1722,20 +1722,20 @@
     <row r="51">
       <c r="A51" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_86.fasta</t>
+          <t>label_UMGS627_82.fasta</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.9867837549766975</v>
+        <v>0.9756731137828417</v>
       </c>
       <c r="C51" t="n">
-        <v>0.003185179284400572</v>
+        <v>0.005868672982540955</v>
       </c>
       <c r="D51" t="n">
-        <v>0.01003106573890184</v>
+        <v>0.0184582132346173</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9867837549766975</v>
+        <v>0.9756731137828417</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -1746,20 +1746,20 @@
     <row r="52">
       <c r="A52" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_88.fasta</t>
+          <t>label_UMGS627_84.fasta</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.9132688910934745</v>
+        <v>0.9798345915473189</v>
       </c>
       <c r="C52" t="n">
-        <v>0.03377388544255914</v>
+        <v>0.004608380322345564</v>
       </c>
       <c r="D52" t="n">
-        <v>0.05295722346396634</v>
+        <v>0.0155570281303355</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9132688910934745</v>
+        <v>0.9798345915473189</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -1770,20 +1770,20 @@
     <row r="53">
       <c r="A53" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_92.fasta</t>
+          <t>label_UMGS627_87.fasta</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.9936870400784928</v>
+        <v>0.8944704409039356</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0008221923035429898</v>
+        <v>0.07968904819515173</v>
       </c>
       <c r="D53" t="n">
-        <v>0.005490767617964184</v>
+        <v>0.02584051090091264</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9936870400784928</v>
+        <v>0.8944704409039356</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -1794,20 +1794,20 @@
     <row r="54">
       <c r="A54" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_93.fasta</t>
+          <t>label_UMGS627_9.fasta</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.9767906542187975</v>
+        <v>0.9896231492322259</v>
       </c>
       <c r="C54" t="n">
-        <v>0.009716451258140467</v>
+        <v>0.003237075819992189</v>
       </c>
       <c r="D54" t="n">
-        <v>0.01349289452306204</v>
+        <v>0.007139774947781924</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9767906542187975</v>
+        <v>0.9896231492322259</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -1818,20 +1818,20 @@
     <row r="55">
       <c r="A55" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_97.fasta</t>
+          <t>label_UMGS627_94.fasta</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.9828165090725642</v>
+        <v>0.9795659321406852</v>
       </c>
       <c r="C55" t="n">
-        <v>0.004383438005271763</v>
+        <v>0.005829531232537099</v>
       </c>
       <c r="D55" t="n">
-        <v>0.01280005292216399</v>
+        <v>0.01460453662677772</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9828165090725642</v>
+        <v>0.9795659321406852</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -1842,20 +1842,20 @@
     <row r="56">
       <c r="A56" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_0.fasta</t>
+          <t>label_UMGS627_98.fasta</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.9885033600994627</v>
+        <v>0.9805458111299762</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0004399997401791252</v>
+        <v>0.003047860046159126</v>
       </c>
       <c r="D56" t="n">
-        <v>0.01105664016035816</v>
+        <v>0.01640632882386463</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9885033600994627</v>
+        <v>0.9805458111299762</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -1866,20 +1866,20 @@
     <row r="57">
       <c r="A57" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_117.fasta</t>
+          <t>label_UMGS627_99.fasta</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.9561145923819609</v>
+        <v>0.9685492745630875</v>
       </c>
       <c r="C57" t="n">
-        <v>0.02414384409445128</v>
+        <v>0.01192809727084186</v>
       </c>
       <c r="D57" t="n">
-        <v>0.01974156352358773</v>
+        <v>0.01952262816607063</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9561145923819609</v>
+        <v>0.9685492745630875</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -1890,20 +1890,20 @@
     <row r="58">
       <c r="A58" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_12.fasta</t>
+          <t>label_UMGS627_100.fasta</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.9627083091292175</v>
+        <v>0.9771199507388829</v>
       </c>
       <c r="C58" t="n">
-        <v>0.02754187628113305</v>
+        <v>0.003382465457999704</v>
       </c>
       <c r="D58" t="n">
-        <v>0.009749814589649373</v>
+        <v>0.01949758380311737</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9627083091292175</v>
+        <v>0.9771199507388829</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -1914,20 +1914,20 @@
     <row r="59">
       <c r="A59" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_120.fasta</t>
+          <t>label_UMGS627_102.fasta</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.9821425537810106</v>
+        <v>0.9841285877299564</v>
       </c>
       <c r="C59" t="n">
-        <v>0.007297154364034085</v>
+        <v>0.005516476990229264</v>
       </c>
       <c r="D59" t="n">
-        <v>0.01056029185495535</v>
+        <v>0.01035493527981444</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9821425537810106</v>
+        <v>0.9841285877299564</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -1938,20 +1938,20 @@
     <row r="60">
       <c r="A60" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_124.fasta</t>
+          <t>label_UMGS627_105.fasta</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.8742865434516455</v>
+        <v>0.9793354402658777</v>
       </c>
       <c r="C60" t="n">
-        <v>0.03387396337531915</v>
+        <v>0.006016323904445788</v>
       </c>
       <c r="D60" t="n">
-        <v>0.09183949317303534</v>
+        <v>0.01464823582967656</v>
       </c>
       <c r="E60" t="n">
-        <v>0.8742865434516455</v>
+        <v>0.9793354402658777</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -1962,20 +1962,20 @@
     <row r="61">
       <c r="A61" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_134.fasta</t>
+          <t>label_UMGS627_106.fasta</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.9696145182946452</v>
+        <v>0.9739127989738267</v>
       </c>
       <c r="C61" t="n">
-        <v>0.004323392526790883</v>
+        <v>0.007669917442345764</v>
       </c>
       <c r="D61" t="n">
-        <v>0.02606208917856399</v>
+        <v>0.01841728358382753</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9696145182946452</v>
+        <v>0.9739127989738267</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -1986,20 +1986,20 @@
     <row r="62">
       <c r="A62" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_136.fasta</t>
+          <t>label_UMGS627_111.fasta</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.8952452935435036</v>
+        <v>0.9849994745532983</v>
       </c>
       <c r="C62" t="n">
-        <v>0.07671837369959104</v>
+        <v>0.001310140812865295</v>
       </c>
       <c r="D62" t="n">
-        <v>0.02803633275690544</v>
+        <v>0.01369038463383643</v>
       </c>
       <c r="E62" t="n">
-        <v>0.8952452935435036</v>
+        <v>0.9849994745532983</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2010,20 +2010,20 @@
     <row r="63">
       <c r="A63" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_21.fasta</t>
+          <t>label_UMGS627_112.fasta</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.989044336589443</v>
+        <v>0.9755718044551986</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0001791487644803862</v>
+        <v>0.008597017123196169</v>
       </c>
       <c r="D63" t="n">
-        <v>0.01077651464607661</v>
+        <v>0.01583117842160516</v>
       </c>
       <c r="E63" t="n">
-        <v>0.989044336589443</v>
+        <v>0.9755718044551986</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2034,20 +2034,20 @@
     <row r="64">
       <c r="A64" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_26.fasta</t>
+          <t>label_UMGS627_17.fasta</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.9859600858104679</v>
+        <v>0.9792044483835265</v>
       </c>
       <c r="C64" t="n">
-        <v>0.003055901465326554</v>
+        <v>0.01174743386717731</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0109840127242056</v>
+        <v>0.009048117749296146</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9859600858104679</v>
+        <v>0.9792044483835265</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -2058,20 +2058,20 @@
     <row r="65">
       <c r="A65" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_28.fasta</t>
+          <t>label_UMGS627_2.fasta</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.9826457423247823</v>
+        <v>0.9922635426725417</v>
       </c>
       <c r="C65" t="n">
-        <v>0.000917025569767157</v>
+        <v>0.002303670953036251</v>
       </c>
       <c r="D65" t="n">
-        <v>0.01643723210545055</v>
+        <v>0.005432786374422062</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9826457423247823</v>
+        <v>0.9922635426725417</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -2082,20 +2082,20 @@
     <row r="66">
       <c r="A66" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_37.fasta</t>
+          <t>label_UMGS627_24.fasta</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.9886715319502578</v>
+        <v>0.9858053579121084</v>
       </c>
       <c r="C66" t="n">
-        <v>0.001585800098929839</v>
+        <v>0.003036690893079962</v>
       </c>
       <c r="D66" t="n">
-        <v>0.009742667950812436</v>
+        <v>0.01115795119481158</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9886715319502578</v>
+        <v>0.9858053579121084</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -2106,20 +2106,20 @@
     <row r="67">
       <c r="A67" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_43.fasta</t>
+          <t>label_UMGS627_29.fasta</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.9853482907938937</v>
+        <v>0.9515500234757673</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0006131022332983722</v>
+        <v>0.02880907354658319</v>
       </c>
       <c r="D67" t="n">
-        <v>0.01403860697280785</v>
+        <v>0.01964090297764953</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9853482907938937</v>
+        <v>0.9515500234757673</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -2130,20 +2130,20 @@
     <row r="68">
       <c r="A68" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_44.fasta</t>
+          <t>label_UMGS627_3.fasta</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.9858833926901626</v>
+        <v>0.9813060669930885</v>
       </c>
       <c r="C68" t="n">
-        <v>0.002293409857293456</v>
+        <v>0.0009567010778414602</v>
       </c>
       <c r="D68" t="n">
-        <v>0.01182319745254393</v>
+        <v>0.01773723192907</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9858833926901626</v>
+        <v>0.9813060669930885</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -2154,20 +2154,20 @@
     <row r="69">
       <c r="A69" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_47.fasta</t>
+          <t>label_UMGS627_33.fasta</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.9837489140052202</v>
+        <v>0.9589884992327432</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0007395117865488062</v>
+        <v>0.006830548038074794</v>
       </c>
       <c r="D69" t="n">
-        <v>0.01551157420823101</v>
+        <v>0.03418095272918194</v>
       </c>
       <c r="E69" t="n">
-        <v>0.9837489140052202</v>
+        <v>0.9589884992327432</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -2178,20 +2178,20 @@
     <row r="70">
       <c r="A70" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_5.fasta</t>
+          <t>label_UMGS627_34.fasta</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.9847766306721637</v>
+        <v>0.9753787297470358</v>
       </c>
       <c r="C70" t="n">
-        <v>0.001826118462900868</v>
+        <v>0.007859507771344353</v>
       </c>
       <c r="D70" t="n">
-        <v>0.01339725086493542</v>
+        <v>0.01676176248161979</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9847766306721637</v>
+        <v>0.9753787297470358</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -2202,20 +2202,20 @@
     <row r="71">
       <c r="A71" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_58.fasta</t>
+          <t>label_UMGS627_38.fasta</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.9830369670599204</v>
+        <v>0.986376626405614</v>
       </c>
       <c r="C71" t="n">
-        <v>0.00347834752982626</v>
+        <v>0.0004594552417585561</v>
       </c>
       <c r="D71" t="n">
-        <v>0.01348468541025324</v>
+        <v>0.0131639183526275</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9830369670599204</v>
+        <v>0.986376626405614</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -2226,20 +2226,20 @@
     <row r="72">
       <c r="A72" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_59.fasta</t>
+          <t>label_UMGS627_4.fasta</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.9847271948578176</v>
+        <v>0.9920640256569416</v>
       </c>
       <c r="C72" t="n">
-        <v>0.000531968453706472</v>
+        <v>0.001759012406339608</v>
       </c>
       <c r="D72" t="n">
-        <v>0.014740836688476</v>
+        <v>0.006176961936718716</v>
       </c>
       <c r="E72" t="n">
-        <v>0.9847271948578176</v>
+        <v>0.9920640256569416</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -2250,20 +2250,20 @@
     <row r="73">
       <c r="A73" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_64.fasta</t>
+          <t>label_UMGS627_40.fasta</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.9832769870108128</v>
+        <v>0.9776745807456336</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0008927131080116058</v>
+        <v>0.008348899059809671</v>
       </c>
       <c r="D73" t="n">
-        <v>0.01583029988117563</v>
+        <v>0.01397652019455676</v>
       </c>
       <c r="E73" t="n">
-        <v>0.9832769870108128</v>
+        <v>0.9776745807456336</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -2274,20 +2274,20 @@
     <row r="74">
       <c r="A74" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_74.fasta</t>
+          <t>label_UMGS627_46.fasta</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.9774862886600278</v>
+        <v>0.9553278848085117</v>
       </c>
       <c r="C74" t="n">
-        <v>0.006810322783670148</v>
+        <v>0.01579772083804885</v>
       </c>
       <c r="D74" t="n">
-        <v>0.01570338855630189</v>
+        <v>0.02887439435343948</v>
       </c>
       <c r="E74" t="n">
-        <v>0.9774862886600278</v>
+        <v>0.9553278848085117</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -2298,20 +2298,20 @@
     <row r="75">
       <c r="A75" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_75.fasta</t>
+          <t>label_UMGS627_51.fasta</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.9858535983264797</v>
+        <v>0.9616373799202355</v>
       </c>
       <c r="C75" t="n">
-        <v>0.001718527837743325</v>
+        <v>0.01820255262508137</v>
       </c>
       <c r="D75" t="n">
-        <v>0.01242787383577702</v>
+        <v>0.02016006745468313</v>
       </c>
       <c r="E75" t="n">
-        <v>0.9858535983264797</v>
+        <v>0.9616373799202355</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -2322,20 +2322,20 @@
     <row r="76">
       <c r="A76" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_78.fasta</t>
+          <t>label_UMGS627_52.fasta</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.9796502304414312</v>
+        <v>0.8349969557563738</v>
       </c>
       <c r="C76" t="n">
-        <v>0.003923608452380109</v>
+        <v>0.132827968960671</v>
       </c>
       <c r="D76" t="n">
-        <v>0.01642616110618867</v>
+        <v>0.03217507528295518</v>
       </c>
       <c r="E76" t="n">
-        <v>0.9796502304414312</v>
+        <v>0.8349969557563738</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -2346,20 +2346,20 @@
     <row r="77">
       <c r="A77" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_82.fasta</t>
+          <t>label_UMGS627_54.fasta</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.9756731137828417</v>
+        <v>0.981117304185855</v>
       </c>
       <c r="C77" t="n">
-        <v>0.005868672982540955</v>
+        <v>0.003991593939284192</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0184582132346173</v>
+        <v>0.0148911018748609</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9756731137828417</v>
+        <v>0.981117304185855</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -2370,20 +2370,20 @@
     <row r="78">
       <c r="A78" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_84.fasta</t>
+          <t>label_UMGS627_56.fasta</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.9798345915473189</v>
+        <v>0.9790012543059107</v>
       </c>
       <c r="C78" t="n">
-        <v>0.004608380322345564</v>
+        <v>0.0054194954039217</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0155570281303355</v>
+        <v>0.01557925029016767</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9798345915473189</v>
+        <v>0.9790012543059107</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -2394,20 +2394,20 @@
     <row r="79">
       <c r="A79" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_87.fasta</t>
+          <t>label_UMGS627_57.fasta</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.8944704409039356</v>
+        <v>0.9854247540818004</v>
       </c>
       <c r="C79" t="n">
-        <v>0.07968904819515173</v>
+        <v>0.0008537503565012135</v>
       </c>
       <c r="D79" t="n">
-        <v>0.02584051090091264</v>
+        <v>0.01372149556169841</v>
       </c>
       <c r="E79" t="n">
-        <v>0.8944704409039356</v>
+        <v>0.9854247540818004</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -2418,20 +2418,20 @@
     <row r="80">
       <c r="A80" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_9.fasta</t>
+          <t>label_UMGS627_63.fasta</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.9896231492322259</v>
+        <v>0.9801842710998206</v>
       </c>
       <c r="C80" t="n">
-        <v>0.003237075819992189</v>
+        <v>0.004909716091207023</v>
       </c>
       <c r="D80" t="n">
-        <v>0.007139774947781924</v>
+        <v>0.01490601280897232</v>
       </c>
       <c r="E80" t="n">
-        <v>0.9896231492322259</v>
+        <v>0.9801842710998206</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -2442,20 +2442,20 @@
     <row r="81">
       <c r="A81" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_94.fasta</t>
+          <t>label_UMGS627_69.fasta</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.9795659321406852</v>
+        <v>0.9801554937097097</v>
       </c>
       <c r="C81" t="n">
-        <v>0.005829531232537099</v>
+        <v>0.003764358322520252</v>
       </c>
       <c r="D81" t="n">
-        <v>0.01460453662677772</v>
+        <v>0.01608014796777004</v>
       </c>
       <c r="E81" t="n">
-        <v>0.9795659321406852</v>
+        <v>0.9801554937097097</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -2466,20 +2466,20 @@
     <row r="82">
       <c r="A82" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_98.fasta</t>
+          <t>label_UMGS627_70.fasta</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.9805458111299762</v>
+        <v>0.9772078305476611</v>
       </c>
       <c r="C82" t="n">
-        <v>0.003047860046159126</v>
+        <v>0.006219880968475882</v>
       </c>
       <c r="D82" t="n">
-        <v>0.01640632882386463</v>
+        <v>0.01657228848386297</v>
       </c>
       <c r="E82" t="n">
-        <v>0.9805458111299762</v>
+        <v>0.9772078305476611</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -2490,20 +2490,20 @@
     <row r="83">
       <c r="A83" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_99.fasta</t>
+          <t>label_UMGS627_83.fasta</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.9685492745630875</v>
+        <v>0.9796425793254168</v>
       </c>
       <c r="C83" t="n">
-        <v>0.01192809727084186</v>
+        <v>0.0005694654564864131</v>
       </c>
       <c r="D83" t="n">
-        <v>0.01952262816607063</v>
+        <v>0.01978795521809683</v>
       </c>
       <c r="E83" t="n">
-        <v>0.9685492745630875</v>
+        <v>0.9796425793254168</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -2514,20 +2514,20 @@
     <row r="84">
       <c r="A84" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_100.fasta</t>
+          <t>label_UMGS627_89.fasta</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.9771199507388829</v>
+        <v>0.9852478100232372</v>
       </c>
       <c r="C84" t="n">
-        <v>0.003382465457999704</v>
+        <v>0.00356052142446696</v>
       </c>
       <c r="D84" t="n">
-        <v>0.01949758380311737</v>
+        <v>0.01119166855229573</v>
       </c>
       <c r="E84" t="n">
-        <v>0.9771199507388829</v>
+        <v>0.9852478100232372</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -2538,20 +2538,20 @@
     <row r="85">
       <c r="A85" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_102.fasta</t>
+          <t>label_UMGS627_91.fasta</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.9841285877299564</v>
+        <v>0.9730782661350029</v>
       </c>
       <c r="C85" t="n">
-        <v>0.005516476990229264</v>
+        <v>0.01420347100217632</v>
       </c>
       <c r="D85" t="n">
-        <v>0.01035493527981444</v>
+        <v>0.0127182628628208</v>
       </c>
       <c r="E85" t="n">
-        <v>0.9841285877299564</v>
+        <v>0.9730782661350029</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -2562,20 +2562,20 @@
     <row r="86">
       <c r="A86" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_105.fasta</t>
+          <t>label_UMGS627_96.fasta</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.9793354402658777</v>
+        <v>0.9719275236918417</v>
       </c>
       <c r="C86" t="n">
-        <v>0.006016323904445788</v>
+        <v>0.00201967854271848</v>
       </c>
       <c r="D86" t="n">
-        <v>0.01464823582967656</v>
+        <v>0.02605279776543992</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9793354402658777</v>
+        <v>0.9719275236918417</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -2586,20 +2586,20 @@
     <row r="87">
       <c r="A87" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_106.fasta</t>
+          <t>label_UMGS627_108.fasta</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.9739127989738267</v>
+        <v>0.9363121898043915</v>
       </c>
       <c r="C87" t="n">
-        <v>0.007669917442345764</v>
+        <v>0.06368781019558648</v>
       </c>
       <c r="D87" t="n">
-        <v>0.01841728358382753</v>
+        <v>2.219931913188712e-14</v>
       </c>
       <c r="E87" t="n">
-        <v>0.9739127989738267</v>
+        <v>0.9363121898043915</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -2610,20 +2610,20 @@
     <row r="88">
       <c r="A88" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_111.fasta</t>
+          <t>label_UMGS627_109.fasta</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.9849994745532983</v>
+        <v>0.9948102141701284</v>
       </c>
       <c r="C88" t="n">
-        <v>0.001310140812865295</v>
+        <v>0.005189785829849381</v>
       </c>
       <c r="D88" t="n">
-        <v>0.01369038463383643</v>
+        <v>2.221646010188699e-14</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9849994745532983</v>
+        <v>0.9948102141701284</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -2634,20 +2634,20 @@
     <row r="89">
       <c r="A89" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_112.fasta</t>
+          <t>label_UMGS627_115.fasta</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.9755718044551986</v>
+        <v>0.994588044543406</v>
       </c>
       <c r="C89" t="n">
-        <v>0.008597017123196169</v>
+        <v>0.005411955456571824</v>
       </c>
       <c r="D89" t="n">
-        <v>0.01583117842160516</v>
+        <v>2.219816577641167e-14</v>
       </c>
       <c r="E89" t="n">
-        <v>0.9755718044551986</v>
+        <v>0.994588044543406</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -2658,20 +2658,20 @@
     <row r="90">
       <c r="A90" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_17.fasta</t>
+          <t>label_UMGS627_116.fasta</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.9792044483835265</v>
+        <v>0.9850452018544271</v>
       </c>
       <c r="C90" t="n">
-        <v>0.01174743386717731</v>
+        <v>0.01495479814555068</v>
       </c>
       <c r="D90" t="n">
-        <v>0.009048117749296146</v>
+        <v>2.219827886115691e-14</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9792044483835265</v>
+        <v>0.9850452018544271</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -2682,20 +2682,20 @@
     <row r="91">
       <c r="A91" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_2.fasta</t>
+          <t>label_UMGS627_121.fasta</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.9922635426725417</v>
+        <v>0.9800988619164493</v>
       </c>
       <c r="C91" t="n">
-        <v>0.002303670953036251</v>
+        <v>0.01990113808352849</v>
       </c>
       <c r="D91" t="n">
-        <v>0.005432786374422062</v>
+        <v>2.219842211374616e-14</v>
       </c>
       <c r="E91" t="n">
-        <v>0.9922635426725417</v>
+        <v>0.9800988619164493</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -2706,20 +2706,20 @@
     <row r="92">
       <c r="A92" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_24.fasta</t>
+          <t>label_UMGS627_122.fasta</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.9858053579121084</v>
+        <v>0.9933110396911481</v>
       </c>
       <c r="C92" t="n">
-        <v>0.003036690893079962</v>
+        <v>0.006688960308771638</v>
       </c>
       <c r="D92" t="n">
-        <v>0.01115795119481158</v>
+        <v>8.033712079273155e-14</v>
       </c>
       <c r="E92" t="n">
-        <v>0.9858053579121084</v>
+        <v>0.9933110396911481</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -2730,20 +2730,20 @@
     <row r="93">
       <c r="A93" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_29.fasta</t>
+          <t>label_UMGS627_123.fasta</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.9515500234757673</v>
+        <v>0.9712789459692034</v>
       </c>
       <c r="C93" t="n">
-        <v>0.02880907354658319</v>
+        <v>0.02872105403077454</v>
       </c>
       <c r="D93" t="n">
-        <v>0.01964090297764953</v>
+        <v>2.219848859209371e-14</v>
       </c>
       <c r="E93" t="n">
-        <v>0.9515500234757673</v>
+        <v>0.9712789459692034</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -2754,20 +2754,20 @@
     <row r="94">
       <c r="A94" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_3.fasta</t>
+          <t>label_UMGS627_125.fasta</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.9813060669930885</v>
+        <v>0.9967091531668736</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0009567010778414602</v>
+        <v>0.003290846833092087</v>
       </c>
       <c r="D94" t="n">
-        <v>0.01773723192907</v>
+        <v>3.431526207884147e-14</v>
       </c>
       <c r="E94" t="n">
-        <v>0.9813060669930885</v>
+        <v>0.9967091531668736</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -2778,20 +2778,20 @@
     <row r="95">
       <c r="A95" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_33.fasta</t>
+          <t>label_UMGS627_13.fasta</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.9589884992327432</v>
+        <v>0.9894447899440858</v>
       </c>
       <c r="C95" t="n">
-        <v>0.006830548038074794</v>
+        <v>0.01055521005589196</v>
       </c>
       <c r="D95" t="n">
-        <v>0.03418095272918194</v>
+        <v>2.219831539109677e-14</v>
       </c>
       <c r="E95" t="n">
-        <v>0.9589884992327432</v>
+        <v>0.9894447899440858</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -2802,20 +2802,20 @@
     <row r="96">
       <c r="A96" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_34.fasta</t>
+          <t>label_UMGS627_130.fasta</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.9753787297470358</v>
+        <v>0.9705049587296847</v>
       </c>
       <c r="C96" t="n">
-        <v>0.007859507771344353</v>
+        <v>0.02949504127029315</v>
       </c>
       <c r="D96" t="n">
-        <v>0.01676176248161979</v>
+        <v>2.219850404206908e-14</v>
       </c>
       <c r="E96" t="n">
-        <v>0.9753787297470358</v>
+        <v>0.9705049587296847</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -2826,20 +2826,20 @@
     <row r="97">
       <c r="A97" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_38.fasta</t>
+          <t>label_UMGS627_133.fasta</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.986376626405614</v>
+        <v>0.9871058844703652</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0004594552417585561</v>
+        <v>0.01289411552961265</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0131639183526275</v>
+        <v>2.219842087923124e-14</v>
       </c>
       <c r="E97" t="n">
-        <v>0.986376626405614</v>
+        <v>0.9871058844703652</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -2850,20 +2850,20 @@
     <row r="98">
       <c r="A98" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_4.fasta</t>
+          <t>label_UMGS627_137.fasta</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.9920640256569416</v>
+        <v>0.9981345023629918</v>
       </c>
       <c r="C98" t="n">
-        <v>0.001759012406339608</v>
+        <v>0.001865497636927306</v>
       </c>
       <c r="D98" t="n">
-        <v>0.006176961936718716</v>
+        <v>8.086560198253053e-14</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9920640256569416</v>
+        <v>0.9981345023629918</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -2874,20 +2874,20 @@
     <row r="99">
       <c r="A99" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_40.fasta</t>
+          <t>label_UMGS627_16.fasta</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.9776745807456336</v>
+        <v>0.9995078672242087</v>
       </c>
       <c r="C99" t="n">
-        <v>0.008348899059809671</v>
+        <v>0.0004921327757689793</v>
       </c>
       <c r="D99" t="n">
-        <v>0.01397652019455676</v>
+        <v>2.220094698249924e-14</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9776745807456336</v>
+        <v>0.9995078672242087</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -2898,20 +2898,20 @@
     <row r="100">
       <c r="A100" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_46.fasta</t>
+          <t>label_UMGS627_18.fasta</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.9553278848085117</v>
+        <v>0.9936674750673381</v>
       </c>
       <c r="C100" t="n">
-        <v>0.01579772083804885</v>
+        <v>0.006332524932639678</v>
       </c>
       <c r="D100" t="n">
-        <v>0.02887439435343948</v>
+        <v>2.219815261960948e-14</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9553278848085117</v>
+        <v>0.9936674750673381</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -2922,20 +2922,20 @@
     <row r="101">
       <c r="A101" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_51.fasta</t>
+          <t>label_UMGS627_23.fasta</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.9616373799202355</v>
+        <v>0.99628058053531</v>
       </c>
       <c r="C101" t="n">
-        <v>0.01820255262508137</v>
+        <v>0.003719419464667809</v>
       </c>
       <c r="D101" t="n">
-        <v>0.02016006745468313</v>
+        <v>2.219815851587229e-14</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9616373799202355</v>
+        <v>0.99628058053531</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -2946,20 +2946,20 @@
     <row r="102">
       <c r="A102" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_52.fasta</t>
+          <t>label_UMGS627_36.fasta</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.8349969557563738</v>
+        <v>0.9301462432080487</v>
       </c>
       <c r="C102" t="n">
-        <v>0.132827968960671</v>
+        <v>0.06985375679192914</v>
       </c>
       <c r="D102" t="n">
-        <v>0.03217507528295518</v>
+        <v>2.219896644684119e-14</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8349969557563738</v>
+        <v>0.9301462432080487</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -2970,20 +2970,20 @@
     <row r="103">
       <c r="A103" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_54.fasta</t>
+          <t>label_UMGS627_39.fasta</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.981117304185855</v>
+        <v>0.985932286048757</v>
       </c>
       <c r="C103" t="n">
-        <v>0.003991593939284192</v>
+        <v>0.01406771395122081</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0148911018748609</v>
+        <v>2.219831197186134e-14</v>
       </c>
       <c r="E103" t="n">
-        <v>0.981117304185855</v>
+        <v>0.985932286048757</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -2994,20 +2994,20 @@
     <row r="104">
       <c r="A104" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_56.fasta</t>
+          <t>label_UMGS627_41.fasta</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.9790012543059107</v>
+        <v>0.8929669353249253</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0054194954039217</v>
+        <v>0.1070330646750525</v>
       </c>
       <c r="D104" t="n">
-        <v>0.01557925029016767</v>
+        <v>2.21999732439581e-14</v>
       </c>
       <c r="E104" t="n">
-        <v>0.9790012543059107</v>
+        <v>0.8929669353249253</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -3018,20 +3018,20 @@
     <row r="105">
       <c r="A105" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_57.fasta</t>
+          <t>label_UMGS627_42.fasta</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.9854247540818004</v>
+        <v>0.9167469071646003</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0008537503565012135</v>
+        <v>0.0832530928353775</v>
       </c>
       <c r="D105" t="n">
-        <v>0.01372149556169841</v>
+        <v>2.219950344171509e-14</v>
       </c>
       <c r="E105" t="n">
-        <v>0.9854247540818004</v>
+        <v>0.9167469071646003</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -3042,20 +3042,20 @@
     <row r="106">
       <c r="A106" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_63.fasta</t>
+          <t>label_UMGS627_48.fasta</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.9801842710998206</v>
+        <v>0.9625534634139794</v>
       </c>
       <c r="C106" t="n">
-        <v>0.004909716091207023</v>
+        <v>0.03744653658599845</v>
       </c>
       <c r="D106" t="n">
-        <v>0.01490601280897232</v>
+        <v>2.219907213729819e-14</v>
       </c>
       <c r="E106" t="n">
-        <v>0.9801842710998206</v>
+        <v>0.9625534634139794</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -3066,20 +3066,20 @@
     <row r="107">
       <c r="A107" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_69.fasta</t>
+          <t>label_UMGS627_50.fasta</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.9801554937097097</v>
+        <v>0.9310472631738921</v>
       </c>
       <c r="C107" t="n">
-        <v>0.003764358322520252</v>
+        <v>0.06895273682608399</v>
       </c>
       <c r="D107" t="n">
-        <v>0.01608014796777004</v>
+        <v>2.386338434870305e-14</v>
       </c>
       <c r="E107" t="n">
-        <v>0.9801554937097097</v>
+        <v>0.9310472631738921</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -3090,20 +3090,20 @@
     <row r="108">
       <c r="A108" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_70.fasta</t>
+          <t>label_UMGS627_62.fasta</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.9772078305476611</v>
+        <v>0.9957384797780446</v>
       </c>
       <c r="C108" t="n">
-        <v>0.006219880968475882</v>
+        <v>0.004261520221933212</v>
       </c>
       <c r="D108" t="n">
-        <v>0.01657228848386297</v>
+        <v>2.21981185044803e-14</v>
       </c>
       <c r="E108" t="n">
-        <v>0.9772078305476611</v>
+        <v>0.9957384797780446</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -3114,20 +3114,20 @@
     <row r="109">
       <c r="A109" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_83.fasta</t>
+          <t>label_UMGS627_65.fasta</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.9796425793254168</v>
+        <v>0.9627550881707951</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0005694654564864131</v>
+        <v>0.03724491182918258</v>
       </c>
       <c r="D109" t="n">
-        <v>0.01978795521809683</v>
+        <v>2.219876335056401e-14</v>
       </c>
       <c r="E109" t="n">
-        <v>0.9796425793254168</v>
+        <v>0.9627550881707951</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -3138,20 +3138,20 @@
     <row r="110">
       <c r="A110" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_89.fasta</t>
+          <t>label_UMGS627_68.fasta</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.9852478100232372</v>
+        <v>0.9982093875993446</v>
       </c>
       <c r="C110" t="n">
-        <v>0.00356052142446696</v>
+        <v>0.001790612400633126</v>
       </c>
       <c r="D110" t="n">
-        <v>0.01119166855229573</v>
+        <v>2.21980931769189e-14</v>
       </c>
       <c r="E110" t="n">
-        <v>0.9852478100232372</v>
+        <v>0.9982093875993446</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -3162,20 +3162,20 @@
     <row r="111">
       <c r="A111" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_91.fasta</t>
+          <t>label_UMGS627_72.fasta</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.9730782661350029</v>
+        <v>0.9650522807744512</v>
       </c>
       <c r="C111" t="n">
-        <v>0.01420347100217632</v>
+        <v>0.03494771922552677</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0127182628628208</v>
+        <v>2.219852824781345e-14</v>
       </c>
       <c r="E111" t="n">
-        <v>0.9730782661350029</v>
+        <v>0.9650522807744512</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -3186,20 +3186,20 @@
     <row r="112">
       <c r="A112" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_96.fasta</t>
+          <t>label_UMGS627_79.fasta</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.9719275236918417</v>
+        <v>0.9891839622882647</v>
       </c>
       <c r="C112" t="n">
-        <v>0.00201967854271848</v>
+        <v>0.01081603771171308</v>
       </c>
       <c r="D112" t="n">
-        <v>0.02605279776543992</v>
+        <v>2.219821094435949e-14</v>
       </c>
       <c r="E112" t="n">
-        <v>0.9719275236918417</v>
+        <v>0.9891839622882647</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -3210,20 +3210,20 @@
     <row r="113">
       <c r="A113" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_108.fasta</t>
+          <t>label_UMGS627_8.fasta</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.9363121898043915</v>
+        <v>0.9988580188302369</v>
       </c>
       <c r="C113" t="n">
-        <v>0.06368781019558648</v>
+        <v>0.001141981169740893</v>
       </c>
       <c r="D113" t="n">
-        <v>2.219931913188712e-14</v>
+        <v>2.219807679840985e-14</v>
       </c>
       <c r="E113" t="n">
-        <v>0.9363121898043915</v>
+        <v>0.9988580188302369</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -3234,20 +3234,20 @@
     <row r="114">
       <c r="A114" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_109.fasta</t>
+          <t>label_UMGS627_81.fasta</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.9948102141701284</v>
+        <v>0.9883242412459764</v>
       </c>
       <c r="C114" t="n">
-        <v>0.005189785829849381</v>
+        <v>0.01167575875400144</v>
       </c>
       <c r="D114" t="n">
-        <v>2.221646010188699e-14</v>
+        <v>2.219835030924068e-14</v>
       </c>
       <c r="E114" t="n">
-        <v>0.9948102141701284</v>
+        <v>0.9883242412459764</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -3258,20 +3258,20 @@
     <row r="115">
       <c r="A115" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_115.fasta</t>
+          <t>label_UMGS627_90.fasta</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.994588044543406</v>
+        <v>0.9902597926154109</v>
       </c>
       <c r="C115" t="n">
-        <v>0.005411955456571824</v>
+        <v>0.009740207384566843</v>
       </c>
       <c r="D115" t="n">
-        <v>2.219816577641167e-14</v>
+        <v>2.219820418880729e-14</v>
       </c>
       <c r="E115" t="n">
-        <v>0.994588044543406</v>
+        <v>0.9902597926154109</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -3282,20 +3282,20 @@
     <row r="116">
       <c r="A116" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_116.fasta</t>
+          <t>label_UMGS627_101.fasta</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.9850452018544271</v>
+        <v>0.9842560273408894</v>
       </c>
       <c r="C116" t="n">
-        <v>0.01495479814555068</v>
+        <v>0.004179529511134974</v>
       </c>
       <c r="D116" t="n">
-        <v>2.219827886115691e-14</v>
+        <v>0.01156444314797573</v>
       </c>
       <c r="E116" t="n">
-        <v>0.9850452018544271</v>
+        <v>0.9842560273408894</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -3306,20 +3306,20 @@
     <row r="117">
       <c r="A117" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_121.fasta</t>
+          <t>label_UMGS627_103.fasta</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.9800988619164493</v>
+        <v>0.5247819967675549</v>
       </c>
       <c r="C117" t="n">
-        <v>0.01990113808352849</v>
+        <v>0.4505487721459898</v>
       </c>
       <c r="D117" t="n">
-        <v>2.219842211374616e-14</v>
+        <v>0.02466923108645533</v>
       </c>
       <c r="E117" t="n">
-        <v>0.9800988619164493</v>
+        <v>0.5247819967675549</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -3330,20 +3330,20 @@
     <row r="118">
       <c r="A118" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_122.fasta</t>
+          <t>label_UMGS627_107.fasta</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.9933110396911481</v>
+        <v>0.9867231833777337</v>
       </c>
       <c r="C118" t="n">
-        <v>0.006688960308771638</v>
+        <v>0.004962343584152117</v>
       </c>
       <c r="D118" t="n">
-        <v>8.033712079273155e-14</v>
+        <v>0.008314473038114247</v>
       </c>
       <c r="E118" t="n">
-        <v>0.9933110396911481</v>
+        <v>0.9867231833777337</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -3354,20 +3354,20 @@
     <row r="119">
       <c r="A119" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_123.fasta</t>
+          <t>label_UMGS627_110.fasta</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.9712789459692034</v>
+        <v>0.9901348447974092</v>
       </c>
       <c r="C119" t="n">
-        <v>0.02872105403077454</v>
+        <v>0.003378766165667644</v>
       </c>
       <c r="D119" t="n">
-        <v>2.219848859209371e-14</v>
+        <v>0.006486389036923183</v>
       </c>
       <c r="E119" t="n">
-        <v>0.9712789459692034</v>
+        <v>0.9901348447974092</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -3378,20 +3378,20 @@
     <row r="120">
       <c r="A120" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_125.fasta</t>
+          <t>label_UMGS627_113.fasta</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.9967091531668736</v>
+        <v>0.9208070021657242</v>
       </c>
       <c r="C120" t="n">
-        <v>0.003290846833092087</v>
+        <v>0.06058602143205605</v>
       </c>
       <c r="D120" t="n">
-        <v>3.431526207884147e-14</v>
+        <v>0.01860697640221977</v>
       </c>
       <c r="E120" t="n">
-        <v>0.9967091531668736</v>
+        <v>0.9208070021657242</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -3402,20 +3402,20 @@
     <row r="121">
       <c r="A121" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_13.fasta</t>
+          <t>label_UMGS627_114.fasta</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.9894447899440858</v>
+        <v>0.9855754548052463</v>
       </c>
       <c r="C121" t="n">
-        <v>0.01055521005589196</v>
+        <v>0.006951419683019197</v>
       </c>
       <c r="D121" t="n">
-        <v>2.219831539109677e-14</v>
+        <v>0.007473125511734521</v>
       </c>
       <c r="E121" t="n">
-        <v>0.9894447899440858</v>
+        <v>0.9855754548052463</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -3426,20 +3426,20 @@
     <row r="122">
       <c r="A122" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_130.fasta</t>
+          <t>label_UMGS627_118.fasta</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.9705049587296847</v>
+        <v>0.988943189907619</v>
       </c>
       <c r="C122" t="n">
-        <v>0.02949504127029315</v>
+        <v>0.007557618229729981</v>
       </c>
       <c r="D122" t="n">
-        <v>2.219850404206908e-14</v>
+        <v>0.003499191862651174</v>
       </c>
       <c r="E122" t="n">
-        <v>0.9705049587296847</v>
+        <v>0.988943189907619</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -3450,20 +3450,20 @@
     <row r="123">
       <c r="A123" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_133.fasta</t>
+          <t>label_UMGS627_119.fasta</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.9871058844703652</v>
+        <v>0.9074501574892679</v>
       </c>
       <c r="C123" t="n">
-        <v>0.01289411552961265</v>
+        <v>0.07611727147684401</v>
       </c>
       <c r="D123" t="n">
-        <v>2.219842087923124e-14</v>
+        <v>0.01643257103388805</v>
       </c>
       <c r="E123" t="n">
-        <v>0.9871058844703652</v>
+        <v>0.9074501574892679</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -3474,20 +3474,20 @@
     <row r="124">
       <c r="A124" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_137.fasta</t>
+          <t>label_UMGS627_126.fasta</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.9981345023629918</v>
+        <v>0.952473789589802</v>
       </c>
       <c r="C124" t="n">
-        <v>0.001865497636927306</v>
+        <v>0.03780503977029725</v>
       </c>
       <c r="D124" t="n">
-        <v>8.086560198253053e-14</v>
+        <v>0.00972117063990083</v>
       </c>
       <c r="E124" t="n">
-        <v>0.9981345023629918</v>
+        <v>0.952473789589802</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -3498,20 +3498,20 @@
     <row r="125">
       <c r="A125" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_16.fasta</t>
+          <t>label_UMGS627_127.fasta</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.9995078672242087</v>
+        <v>0.9731848366409263</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0004921327757689793</v>
+        <v>0.01766175428126085</v>
       </c>
       <c r="D125" t="n">
-        <v>2.220094698249924e-14</v>
+        <v>0.009153409077812947</v>
       </c>
       <c r="E125" t="n">
-        <v>0.9995078672242087</v>
+        <v>0.9731848366409263</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -3522,20 +3522,20 @@
     <row r="126">
       <c r="A126" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_18.fasta</t>
+          <t>label_UMGS627_129.fasta</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.9936674750673381</v>
+        <v>0.9617033620624086</v>
       </c>
       <c r="C126" t="n">
-        <v>0.006332524932639678</v>
+        <v>0.03146761974566922</v>
       </c>
       <c r="D126" t="n">
-        <v>2.219815261960948e-14</v>
+        <v>0.00682901819192213</v>
       </c>
       <c r="E126" t="n">
-        <v>0.9936674750673381</v>
+        <v>0.9617033620624086</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -3546,20 +3546,20 @@
     <row r="127">
       <c r="A127" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_23.fasta</t>
+          <t>label_UMGS627_132.fasta</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.99628058053531</v>
+        <v>0.9229757200178146</v>
       </c>
       <c r="C127" t="n">
-        <v>0.003719419464667809</v>
+        <v>0.07426564399556236</v>
       </c>
       <c r="D127" t="n">
-        <v>2.219815851587229e-14</v>
+        <v>0.002758635986623136</v>
       </c>
       <c r="E127" t="n">
-        <v>0.99628058053531</v>
+        <v>0.9229757200178146</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -3570,20 +3570,20 @@
     <row r="128">
       <c r="A128" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_36.fasta</t>
+          <t>label_UMGS627_135.fasta</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.9301462432080487</v>
+        <v>0.9772701618167191</v>
       </c>
       <c r="C128" t="n">
-        <v>0.06985375679192914</v>
+        <v>0.01054668784460796</v>
       </c>
       <c r="D128" t="n">
-        <v>2.219896644684119e-14</v>
+        <v>0.01218315033867286</v>
       </c>
       <c r="E128" t="n">
-        <v>0.9301462432080487</v>
+        <v>0.9772701618167191</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -3594,20 +3594,20 @@
     <row r="129">
       <c r="A129" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_39.fasta</t>
+          <t>label_UMGS627_14.fasta</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.985932286048757</v>
+        <v>0.9928400783745298</v>
       </c>
       <c r="C129" t="n">
-        <v>0.01406771395122081</v>
+        <v>0.002166175732104344</v>
       </c>
       <c r="D129" t="n">
-        <v>2.219831197186134e-14</v>
+        <v>0.004993745893365831</v>
       </c>
       <c r="E129" t="n">
-        <v>0.985932286048757</v>
+        <v>0.9928400783745298</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -3618,20 +3618,20 @@
     <row r="130">
       <c r="A130" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_41.fasta</t>
+          <t>label_UMGS627_19.fasta</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.8929669353249253</v>
+        <v>0.8409704758476547</v>
       </c>
       <c r="C130" t="n">
-        <v>0.1070330646750525</v>
+        <v>0.1375371750346584</v>
       </c>
       <c r="D130" t="n">
-        <v>2.21999732439581e-14</v>
+        <v>0.0214923491176869</v>
       </c>
       <c r="E130" t="n">
-        <v>0.8929669353249253</v>
+        <v>0.8409704758476547</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -3642,20 +3642,20 @@
     <row r="131">
       <c r="A131" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_42.fasta</t>
+          <t>label_UMGS627_25.fasta</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.9167469071646003</v>
+        <v>0.9859076636943954</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0832530928353775</v>
+        <v>0.004338079138343308</v>
       </c>
       <c r="D131" t="n">
-        <v>2.219950344171509e-14</v>
+        <v>0.009754257167261301</v>
       </c>
       <c r="E131" t="n">
-        <v>0.9167469071646003</v>
+        <v>0.9859076636943954</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -3666,20 +3666,20 @@
     <row r="132">
       <c r="A132" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_48.fasta</t>
+          <t>label_UMGS627_30.fasta</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.9625534634139794</v>
+        <v>0.9867465920424415</v>
       </c>
       <c r="C132" t="n">
-        <v>0.03744653658599845</v>
+        <v>0.001838246241917998</v>
       </c>
       <c r="D132" t="n">
-        <v>2.219907213729819e-14</v>
+        <v>0.01141516171564049</v>
       </c>
       <c r="E132" t="n">
-        <v>0.9625534634139794</v>
+        <v>0.9867465920424415</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -3690,20 +3690,20 @@
     <row r="133">
       <c r="A133" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_50.fasta</t>
+          <t>label_UMGS627_45.fasta</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.9310472631738921</v>
+        <v>0.9847985840647987</v>
       </c>
       <c r="C133" t="n">
-        <v>0.06895273682608399</v>
+        <v>0.004962445120300713</v>
       </c>
       <c r="D133" t="n">
-        <v>2.386338434870305e-14</v>
+        <v>0.01023897081490066</v>
       </c>
       <c r="E133" t="n">
-        <v>0.9310472631738921</v>
+        <v>0.9847985840647987</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -3714,20 +3714,20 @@
     <row r="134">
       <c r="A134" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_62.fasta</t>
+          <t>label_UMGS627_49.fasta</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.9957384797780446</v>
+        <v>0.9835811318840638</v>
       </c>
       <c r="C134" t="n">
-        <v>0.004261520221933212</v>
+        <v>0.00237587444140181</v>
       </c>
       <c r="D134" t="n">
-        <v>2.21981185044803e-14</v>
+        <v>0.0140429936745344</v>
       </c>
       <c r="E134" t="n">
-        <v>0.9957384797780446</v>
+        <v>0.9835811318840638</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -3738,20 +3738,20 @@
     <row r="135">
       <c r="A135" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_65.fasta</t>
+          <t>label_UMGS627_6.fasta</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.9627550881707951</v>
+        <v>0.981024374811173</v>
       </c>
       <c r="C135" t="n">
-        <v>0.03724491182918258</v>
+        <v>0.01349333735473148</v>
       </c>
       <c r="D135" t="n">
-        <v>2.219876335056401e-14</v>
+        <v>0.005482287834095454</v>
       </c>
       <c r="E135" t="n">
-        <v>0.9627550881707951</v>
+        <v>0.981024374811173</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
@@ -3762,20 +3762,20 @@
     <row r="136">
       <c r="A136" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_68.fasta</t>
+          <t>label_UMGS627_61.fasta</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.9982093875993446</v>
+        <v>0.9853820566071417</v>
       </c>
       <c r="C136" t="n">
-        <v>0.001790612400633126</v>
+        <v>0.001434267987296429</v>
       </c>
       <c r="D136" t="n">
-        <v>2.21980931769189e-14</v>
+        <v>0.01318367540556178</v>
       </c>
       <c r="E136" t="n">
-        <v>0.9982093875993446</v>
+        <v>0.9853820566071417</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -3786,20 +3786,20 @@
     <row r="137">
       <c r="A137" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_72.fasta</t>
+          <t>label_UMGS627_66.fasta</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.9650522807744512</v>
+        <v>0.8864382753052492</v>
       </c>
       <c r="C137" t="n">
-        <v>0.03494771922552677</v>
+        <v>0.08949610739061838</v>
       </c>
       <c r="D137" t="n">
-        <v>2.219852824781345e-14</v>
+        <v>0.0240656173041324</v>
       </c>
       <c r="E137" t="n">
-        <v>0.9650522807744512</v>
+        <v>0.8864382753052492</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
@@ -3810,20 +3810,20 @@
     <row r="138">
       <c r="A138" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_79.fasta</t>
+          <t>label_UMGS627_7.fasta</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.9891839622882647</v>
+        <v>0.9043352762833416</v>
       </c>
       <c r="C138" t="n">
-        <v>0.01081603771171308</v>
+        <v>0.0912775093855043</v>
       </c>
       <c r="D138" t="n">
-        <v>2.219821094435949e-14</v>
+        <v>0.004387214331154033</v>
       </c>
       <c r="E138" t="n">
-        <v>0.9891839622882647</v>
+        <v>0.9043352762833416</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -3834,20 +3834,20 @@
     <row r="139">
       <c r="A139" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_8.fasta</t>
+          <t>label_UMGS627_71.fasta</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.9988580188302369</v>
+        <v>0.9818828352190148</v>
       </c>
       <c r="C139" t="n">
-        <v>0.001141981169740893</v>
+        <v>0.003498831603125794</v>
       </c>
       <c r="D139" t="n">
-        <v>2.219807679840985e-14</v>
+        <v>0.01461833317785941</v>
       </c>
       <c r="E139" t="n">
-        <v>0.9988580188302369</v>
+        <v>0.9818828352190148</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -3858,20 +3858,20 @@
     <row r="140">
       <c r="A140" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_81.fasta</t>
+          <t>label_UMGS627_73.fasta</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.9883242412459764</v>
+        <v>0.9797238364368468</v>
       </c>
       <c r="C140" t="n">
-        <v>0.01167575875400144</v>
+        <v>0.005739762373801353</v>
       </c>
       <c r="D140" t="n">
-        <v>2.219835030924068e-14</v>
+        <v>0.01453640118935178</v>
       </c>
       <c r="E140" t="n">
-        <v>0.9883242412459764</v>
+        <v>0.9797238364368468</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -3882,20 +3882,20 @@
     <row r="141">
       <c r="A141" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_90.fasta</t>
+          <t>label_UMGS627_76.fasta</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.9902597926154109</v>
+        <v>0.985016061148709</v>
       </c>
       <c r="C141" t="n">
-        <v>0.009740207384566843</v>
+        <v>0.0008569071595713084</v>
       </c>
       <c r="D141" t="n">
-        <v>2.219820418880729e-14</v>
+        <v>0.0141270316917197</v>
       </c>
       <c r="E141" t="n">
-        <v>0.9902597926154109</v>
+        <v>0.985016061148709</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -3906,20 +3906,20 @@
     <row r="142">
       <c r="A142" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_101.fasta</t>
+          <t>label_UMGS627_80.fasta</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.9842560273408894</v>
+        <v>0.9793657319861583</v>
       </c>
       <c r="C142" t="n">
-        <v>0.004179529511134974</v>
+        <v>0.005049300949365209</v>
       </c>
       <c r="D142" t="n">
-        <v>0.01156444314797573</v>
+        <v>0.01558496706447654</v>
       </c>
       <c r="E142" t="n">
-        <v>0.9842560273408894</v>
+        <v>0.9793657319861583</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -3930,646 +3930,22 @@
     <row r="143">
       <c r="A143" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS627_103.fasta</t>
+          <t>label_UMGS627_95.fasta</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.5247819967675549</v>
+        <v>0.9855957136803065</v>
       </c>
       <c r="C143" t="n">
-        <v>0.4505487721459898</v>
+        <v>0.002646929772487288</v>
       </c>
       <c r="D143" t="n">
-        <v>0.02466923108645533</v>
+        <v>0.01175735654720615</v>
       </c>
       <c r="E143" t="n">
-        <v>0.5247819967675549</v>
+        <v>0.9855957136803065</v>
       </c>
       <c r="F143" t="inlineStr">
-        <is>
-          <t>s__Veillonella_A magna</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS627_107.fasta</t>
-        </is>
-      </c>
-      <c r="B144" t="n">
-        <v>0.9867231833777337</v>
-      </c>
-      <c r="C144" t="n">
-        <v>0.004962343584152117</v>
-      </c>
-      <c r="D144" t="n">
-        <v>0.008314473038114247</v>
-      </c>
-      <c r="E144" t="n">
-        <v>0.9867231833777337</v>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>s__Veillonella_A magna</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS627_110.fasta</t>
-        </is>
-      </c>
-      <c r="B145" t="n">
-        <v>0.9901348447974092</v>
-      </c>
-      <c r="C145" t="n">
-        <v>0.003378766165667644</v>
-      </c>
-      <c r="D145" t="n">
-        <v>0.006486389036923183</v>
-      </c>
-      <c r="E145" t="n">
-        <v>0.9901348447974092</v>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>s__Veillonella_A magna</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS627_113.fasta</t>
-        </is>
-      </c>
-      <c r="B146" t="n">
-        <v>0.9208070021657242</v>
-      </c>
-      <c r="C146" t="n">
-        <v>0.06058602143205605</v>
-      </c>
-      <c r="D146" t="n">
-        <v>0.01860697640221977</v>
-      </c>
-      <c r="E146" t="n">
-        <v>0.9208070021657242</v>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>s__Veillonella_A magna</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS627_114.fasta</t>
-        </is>
-      </c>
-      <c r="B147" t="n">
-        <v>0.9855754548052463</v>
-      </c>
-      <c r="C147" t="n">
-        <v>0.006951419683019197</v>
-      </c>
-      <c r="D147" t="n">
-        <v>0.007473125511734521</v>
-      </c>
-      <c r="E147" t="n">
-        <v>0.9855754548052463</v>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>s__Veillonella_A magna</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS627_118.fasta</t>
-        </is>
-      </c>
-      <c r="B148" t="n">
-        <v>0.988943189907619</v>
-      </c>
-      <c r="C148" t="n">
-        <v>0.007557618229729981</v>
-      </c>
-      <c r="D148" t="n">
-        <v>0.003499191862651174</v>
-      </c>
-      <c r="E148" t="n">
-        <v>0.988943189907619</v>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>s__Veillonella_A magna</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS627_119.fasta</t>
-        </is>
-      </c>
-      <c r="B149" t="n">
-        <v>0.9074501574892679</v>
-      </c>
-      <c r="C149" t="n">
-        <v>0.07611727147684401</v>
-      </c>
-      <c r="D149" t="n">
-        <v>0.01643257103388805</v>
-      </c>
-      <c r="E149" t="n">
-        <v>0.9074501574892679</v>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>s__Veillonella_A magna</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS627_126.fasta</t>
-        </is>
-      </c>
-      <c r="B150" t="n">
-        <v>0.952473789589802</v>
-      </c>
-      <c r="C150" t="n">
-        <v>0.03780503977029725</v>
-      </c>
-      <c r="D150" t="n">
-        <v>0.00972117063990083</v>
-      </c>
-      <c r="E150" t="n">
-        <v>0.952473789589802</v>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>s__Veillonella_A magna</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS627_127.fasta</t>
-        </is>
-      </c>
-      <c r="B151" t="n">
-        <v>0.9731848366409263</v>
-      </c>
-      <c r="C151" t="n">
-        <v>0.01766175428126085</v>
-      </c>
-      <c r="D151" t="n">
-        <v>0.009153409077812947</v>
-      </c>
-      <c r="E151" t="n">
-        <v>0.9731848366409263</v>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>s__Veillonella_A magna</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS627_129.fasta</t>
-        </is>
-      </c>
-      <c r="B152" t="n">
-        <v>0.9617033620624086</v>
-      </c>
-      <c r="C152" t="n">
-        <v>0.03146761974566922</v>
-      </c>
-      <c r="D152" t="n">
-        <v>0.00682901819192213</v>
-      </c>
-      <c r="E152" t="n">
-        <v>0.9617033620624086</v>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>s__Veillonella_A magna</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS627_132.fasta</t>
-        </is>
-      </c>
-      <c r="B153" t="n">
-        <v>0.9229757200178146</v>
-      </c>
-      <c r="C153" t="n">
-        <v>0.07426564399556236</v>
-      </c>
-      <c r="D153" t="n">
-        <v>0.002758635986623136</v>
-      </c>
-      <c r="E153" t="n">
-        <v>0.9229757200178146</v>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>s__Veillonella_A magna</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS627_135.fasta</t>
-        </is>
-      </c>
-      <c r="B154" t="n">
-        <v>0.9772701618167191</v>
-      </c>
-      <c r="C154" t="n">
-        <v>0.01054668784460796</v>
-      </c>
-      <c r="D154" t="n">
-        <v>0.01218315033867286</v>
-      </c>
-      <c r="E154" t="n">
-        <v>0.9772701618167191</v>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>s__Veillonella_A magna</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS627_14.fasta</t>
-        </is>
-      </c>
-      <c r="B155" t="n">
-        <v>0.9928400783745298</v>
-      </c>
-      <c r="C155" t="n">
-        <v>0.002166175732104344</v>
-      </c>
-      <c r="D155" t="n">
-        <v>0.004993745893365831</v>
-      </c>
-      <c r="E155" t="n">
-        <v>0.9928400783745298</v>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>s__Veillonella_A magna</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS627_19.fasta</t>
-        </is>
-      </c>
-      <c r="B156" t="n">
-        <v>0.8409704758476547</v>
-      </c>
-      <c r="C156" t="n">
-        <v>0.1375371750346584</v>
-      </c>
-      <c r="D156" t="n">
-        <v>0.0214923491176869</v>
-      </c>
-      <c r="E156" t="n">
-        <v>0.8409704758476547</v>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>s__Veillonella_A magna</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS627_25.fasta</t>
-        </is>
-      </c>
-      <c r="B157" t="n">
-        <v>0.9859076636943954</v>
-      </c>
-      <c r="C157" t="n">
-        <v>0.004338079138343308</v>
-      </c>
-      <c r="D157" t="n">
-        <v>0.009754257167261301</v>
-      </c>
-      <c r="E157" t="n">
-        <v>0.9859076636943954</v>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>s__Veillonella_A magna</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS627_30.fasta</t>
-        </is>
-      </c>
-      <c r="B158" t="n">
-        <v>0.9867465920424415</v>
-      </c>
-      <c r="C158" t="n">
-        <v>0.001838246241917998</v>
-      </c>
-      <c r="D158" t="n">
-        <v>0.01141516171564049</v>
-      </c>
-      <c r="E158" t="n">
-        <v>0.9867465920424415</v>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>s__Veillonella_A magna</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS627_45.fasta</t>
-        </is>
-      </c>
-      <c r="B159" t="n">
-        <v>0.9847985840647987</v>
-      </c>
-      <c r="C159" t="n">
-        <v>0.004962445120300713</v>
-      </c>
-      <c r="D159" t="n">
-        <v>0.01023897081490066</v>
-      </c>
-      <c r="E159" t="n">
-        <v>0.9847985840647987</v>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>s__Veillonella_A magna</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS627_49.fasta</t>
-        </is>
-      </c>
-      <c r="B160" t="n">
-        <v>0.9835811318840638</v>
-      </c>
-      <c r="C160" t="n">
-        <v>0.00237587444140181</v>
-      </c>
-      <c r="D160" t="n">
-        <v>0.0140429936745344</v>
-      </c>
-      <c r="E160" t="n">
-        <v>0.9835811318840638</v>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>s__Veillonella_A magna</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS627_6.fasta</t>
-        </is>
-      </c>
-      <c r="B161" t="n">
-        <v>0.981024374811173</v>
-      </c>
-      <c r="C161" t="n">
-        <v>0.01349333735473148</v>
-      </c>
-      <c r="D161" t="n">
-        <v>0.005482287834095454</v>
-      </c>
-      <c r="E161" t="n">
-        <v>0.981024374811173</v>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>s__Veillonella_A magna</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS627_61.fasta</t>
-        </is>
-      </c>
-      <c r="B162" t="n">
-        <v>0.9853820566071417</v>
-      </c>
-      <c r="C162" t="n">
-        <v>0.001434267987296429</v>
-      </c>
-      <c r="D162" t="n">
-        <v>0.01318367540556178</v>
-      </c>
-      <c r="E162" t="n">
-        <v>0.9853820566071417</v>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>s__Veillonella_A magna</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS627_66.fasta</t>
-        </is>
-      </c>
-      <c r="B163" t="n">
-        <v>0.8864382753052492</v>
-      </c>
-      <c r="C163" t="n">
-        <v>0.08949610739061838</v>
-      </c>
-      <c r="D163" t="n">
-        <v>0.0240656173041324</v>
-      </c>
-      <c r="E163" t="n">
-        <v>0.8864382753052492</v>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>s__Veillonella_A magna</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS627_7.fasta</t>
-        </is>
-      </c>
-      <c r="B164" t="n">
-        <v>0.9043352762833416</v>
-      </c>
-      <c r="C164" t="n">
-        <v>0.0912775093855043</v>
-      </c>
-      <c r="D164" t="n">
-        <v>0.004387214331154033</v>
-      </c>
-      <c r="E164" t="n">
-        <v>0.9043352762833416</v>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>s__Veillonella_A magna</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS627_71.fasta</t>
-        </is>
-      </c>
-      <c r="B165" t="n">
-        <v>0.9818828352190148</v>
-      </c>
-      <c r="C165" t="n">
-        <v>0.003498831603125794</v>
-      </c>
-      <c r="D165" t="n">
-        <v>0.01461833317785941</v>
-      </c>
-      <c r="E165" t="n">
-        <v>0.9818828352190148</v>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>s__Veillonella_A magna</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS627_73.fasta</t>
-        </is>
-      </c>
-      <c r="B166" t="n">
-        <v>0.9797238364368468</v>
-      </c>
-      <c r="C166" t="n">
-        <v>0.005739762373801353</v>
-      </c>
-      <c r="D166" t="n">
-        <v>0.01453640118935178</v>
-      </c>
-      <c r="E166" t="n">
-        <v>0.9797238364368468</v>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>s__Veillonella_A magna</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS627_76.fasta</t>
-        </is>
-      </c>
-      <c r="B167" t="n">
-        <v>0.985016061148709</v>
-      </c>
-      <c r="C167" t="n">
-        <v>0.0008569071595713084</v>
-      </c>
-      <c r="D167" t="n">
-        <v>0.0141270316917197</v>
-      </c>
-      <c r="E167" t="n">
-        <v>0.985016061148709</v>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>s__Veillonella_A magna</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS627_80.fasta</t>
-        </is>
-      </c>
-      <c r="B168" t="n">
-        <v>0.9793657319861583</v>
-      </c>
-      <c r="C168" t="n">
-        <v>0.005049300949365209</v>
-      </c>
-      <c r="D168" t="n">
-        <v>0.01558496706447654</v>
-      </c>
-      <c r="E168" t="n">
-        <v>0.9793657319861583</v>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>s__Veillonella_A magna</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS627_95.fasta</t>
-        </is>
-      </c>
-      <c r="B169" t="n">
-        <v>0.9855957136803065</v>
-      </c>
-      <c r="C169" t="n">
-        <v>0.002646929772487288</v>
-      </c>
-      <c r="D169" t="n">
-        <v>0.01175735654720615</v>
-      </c>
-      <c r="E169" t="n">
-        <v>0.9855957136803065</v>
-      </c>
-      <c r="F169" t="inlineStr">
         <is>
           <t>s__Veillonella_A magna</t>
         </is>
@@ -4586,7 +3962,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F77"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4917,20 +4293,20 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS13_0.fasta</t>
+          <t>label_UMGS13_15.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0008472493045866726</v>
+        <v>8.914213386192433e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.996492145002254</v>
+        <v>0.9943289955633543</v>
       </c>
       <c r="D14" t="n">
-        <v>0.002660605693159323</v>
+        <v>0.005670113015306999</v>
       </c>
       <c r="E14" t="n">
-        <v>0.996492145002254</v>
+        <v>0.9943289955633543</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -4941,20 +4317,20 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS13_12.fasta</t>
+          <t>label_UMGS13_18.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0001252264996085944</v>
+        <v>8.309048089487498e-10</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9965777702375294</v>
+        <v>0.9925975711736145</v>
       </c>
       <c r="D15" t="n">
-        <v>0.003297003262862072</v>
+        <v>0.007402427995480644</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9965777702375294</v>
+        <v>0.9925975711736145</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -4965,20 +4341,20 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS13_14.fasta</t>
+          <t>label_UMGS13_20.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.632762236103024e-05</v>
+        <v>3.763283206328425e-09</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9882617737084314</v>
+        <v>0.9928755798342955</v>
       </c>
       <c r="D16" t="n">
-        <v>0.01170189866920764</v>
+        <v>0.007124416402421313</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9882617737084314</v>
+        <v>0.9928755798342955</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -4989,20 +4365,20 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS13_19.fasta</t>
+          <t>label_UMGS13_21.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.003178026615874177</v>
+        <v>6.914931258115382e-06</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9944570142070556</v>
+        <v>0.9957350213992483</v>
       </c>
       <c r="D17" t="n">
-        <v>0.002364959177070233</v>
+        <v>0.004258063669493637</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9944570142070556</v>
+        <v>0.9957350213992483</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -5013,20 +4389,20 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS13_22.fasta</t>
+          <t>label_UMGS13_31.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0005590154699447659</v>
+        <v>0.001770482314462675</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9047121518191181</v>
+        <v>0.9816874809176973</v>
       </c>
       <c r="D18" t="n">
-        <v>0.09472883271093709</v>
+        <v>0.01654203676784005</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9047121518191181</v>
+        <v>0.9816874809176973</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -5037,20 +4413,20 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS13_27.fasta</t>
+          <t>label_UMGS13_33.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.004070588375647417</v>
+        <v>0.003915774837374653</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9879916859697836</v>
+        <v>0.9628081277426793</v>
       </c>
       <c r="D19" t="n">
-        <v>0.007937725654569072</v>
+        <v>0.03327609741994601</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9879916859697836</v>
+        <v>0.9628081277426793</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -5061,20 +4437,20 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS13_29.fasta</t>
+          <t>label_UMGS13_36.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0009724451782982476</v>
+        <v>9.628869191407559e-07</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9957646128027037</v>
+        <v>0.9745636656058554</v>
       </c>
       <c r="D20" t="n">
-        <v>0.003262942018998019</v>
+        <v>0.02543537150722559</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9957646128027037</v>
+        <v>0.9745636656058554</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -5085,20 +4461,20 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS13_30.fasta</t>
+          <t>label_UMGS13_4.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.02665500947199951</v>
+        <v>3.00685120144606e-08</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9689233483879057</v>
+        <v>0.9970692430975375</v>
       </c>
       <c r="D21" t="n">
-        <v>0.004421642140094801</v>
+        <v>0.002930726833950494</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9689233483879057</v>
+        <v>0.9970692430975375</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -5109,20 +4485,20 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS13_40.fasta</t>
+          <t>label_UMGS13_50.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.03839767069307721</v>
+        <v>0.0007370216412590705</v>
       </c>
       <c r="C22" t="n">
-        <v>0.895733198595092</v>
+        <v>0.9603853948116602</v>
       </c>
       <c r="D22" t="n">
-        <v>0.06586913071183072</v>
+        <v>0.03887758354708066</v>
       </c>
       <c r="E22" t="n">
-        <v>0.895733198595092</v>
+        <v>0.9603853948116602</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -5133,44 +4509,44 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS13_42.fasta</t>
+          <t>label_UMGS13_51.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.002361252169731082</v>
+        <v>0.8019876782619446</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9954636950471625</v>
+        <v>0.1588211470223378</v>
       </c>
       <c r="D23" t="n">
-        <v>0.002175052783106537</v>
+        <v>0.03919117471571759</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9954636950471625</v>
+        <v>0.8019876782619446</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>s__Veillonella_A sp000431435</t>
+          <t>s__Veillonella_A magna</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS13_43.fasta</t>
+          <t>label_UMGS13_55.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.001181934326293349</v>
+        <v>0.248252180702544</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9947791731966568</v>
+        <v>0.6578068957496831</v>
       </c>
       <c r="D24" t="n">
-        <v>0.004038892477049871</v>
+        <v>0.09394092354777268</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9947791731966568</v>
+        <v>0.6578068957496831</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -5181,44 +4557,44 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS13_45.fasta</t>
+          <t>label_UMGS13_60.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.2256113462674131</v>
+        <v>0.5912902956886524</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7670514330310217</v>
+        <v>0.250006970531818</v>
       </c>
       <c r="D25" t="n">
-        <v>0.007337220701565303</v>
+        <v>0.1587027337795297</v>
       </c>
       <c r="E25" t="n">
-        <v>0.7670514330310217</v>
+        <v>0.5912902956886524</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>s__Veillonella_A sp000431435</t>
+          <t>s__Veillonella_A magna</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS13_48.fasta</t>
+          <t>label_UMGS13_9.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.1614024957193834</v>
+        <v>4.49526725284461e-09</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8300599929789104</v>
+        <v>0.9851363226208953</v>
       </c>
       <c r="D26" t="n">
-        <v>0.008537511301706224</v>
+        <v>0.01486367288383743</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8300599929789104</v>
+        <v>0.9851363226208953</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -5229,20 +4605,20 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS13_54.fasta</t>
+          <t>label_UMGS13_13.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.03067150572249974</v>
+        <v>0.004860244853889363</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9584766024590956</v>
+        <v>0.9849600365724631</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0108518918184047</v>
+        <v>0.01017971857364755</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9584766024590956</v>
+        <v>0.9849600365724631</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -5253,20 +4629,20 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS13_15.fasta</t>
+          <t>label_UMGS13_2.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8.914213386192433e-07</v>
+        <v>1.548490657790027e-07</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9943289955633543</v>
+        <v>0.9905625851012159</v>
       </c>
       <c r="D28" t="n">
-        <v>0.005670113015306999</v>
+        <v>0.00943726004971831</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9943289955633543</v>
+        <v>0.9905625851012159</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -5277,20 +4653,20 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS13_18.fasta</t>
+          <t>label_UMGS13_25.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>8.309048089487498e-10</v>
+        <v>0.003802513743160423</v>
       </c>
       <c r="C29" t="n">
-        <v>0.9925975711736145</v>
+        <v>0.9869490853647545</v>
       </c>
       <c r="D29" t="n">
-        <v>0.007402427995480644</v>
+        <v>0.009248400892085076</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9925975711736145</v>
+        <v>0.9869490853647545</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -5301,20 +4677,20 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS13_20.fasta</t>
+          <t>label_UMGS13_28.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3.763283206328425e-09</v>
+        <v>0.007012080042261659</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9928755798342955</v>
+        <v>0.973572941361302</v>
       </c>
       <c r="D30" t="n">
-        <v>0.007124416402421313</v>
+        <v>0.01941497859643631</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9928755798342955</v>
+        <v>0.973572941361302</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -5325,20 +4701,20 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS13_21.fasta</t>
+          <t>label_UMGS13_32.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>6.914931258115382e-06</v>
+        <v>0.1702592534490101</v>
       </c>
       <c r="C31" t="n">
-        <v>0.9957350213992483</v>
+        <v>0.7847917850832533</v>
       </c>
       <c r="D31" t="n">
-        <v>0.004258063669493637</v>
+        <v>0.0449489614677364</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9957350213992483</v>
+        <v>0.7847917850832533</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -5349,20 +4725,20 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS13_31.fasta</t>
+          <t>label_UMGS13_38.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.001770482314462675</v>
+        <v>0.001346266636383686</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9816874809176973</v>
+        <v>0.9902634207559897</v>
       </c>
       <c r="D32" t="n">
-        <v>0.01654203676784005</v>
+        <v>0.008390312607626554</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9816874809176973</v>
+        <v>0.9902634207559897</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -5373,20 +4749,20 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS13_33.fasta</t>
+          <t>label_UMGS13_41.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.003915774837374653</v>
+        <v>0.0007359071921991939</v>
       </c>
       <c r="C33" t="n">
-        <v>0.9628081277426793</v>
+        <v>0.9920558237893078</v>
       </c>
       <c r="D33" t="n">
-        <v>0.03327609741994601</v>
+        <v>0.007208269018493022</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9628081277426793</v>
+        <v>0.9920558237893078</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -5397,20 +4773,20 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS13_36.fasta</t>
+          <t>label_UMGS13_46.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>9.628869191407559e-07</v>
+        <v>0.003196927240083531</v>
       </c>
       <c r="C34" t="n">
-        <v>0.9745636656058554</v>
+        <v>0.9848641061021096</v>
       </c>
       <c r="D34" t="n">
-        <v>0.02543537150722559</v>
+        <v>0.01193896665780685</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9745636656058554</v>
+        <v>0.9848641061021096</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -5421,20 +4797,20 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS13_4.fasta</t>
+          <t>label_UMGS13_58.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3.00685120144606e-08</v>
+        <v>0.08536869080132907</v>
       </c>
       <c r="C35" t="n">
-        <v>0.9970692430975375</v>
+        <v>0.8549714278792973</v>
       </c>
       <c r="D35" t="n">
-        <v>0.002930726833950494</v>
+        <v>0.05965988131937383</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9970692430975375</v>
+        <v>0.8549714278792973</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -5445,68 +4821,68 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS13_50.fasta</t>
+          <t>label_UMGS13_63.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.0007370216412590705</v>
+        <v>0.948989355249736</v>
       </c>
       <c r="C36" t="n">
-        <v>0.9603853948116602</v>
+        <v>0.01391595529046838</v>
       </c>
       <c r="D36" t="n">
-        <v>0.03887758354708066</v>
+        <v>0.03709468945979553</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9603853948116602</v>
+        <v>0.948989355249736</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>s__Veillonella_A sp000431435</t>
+          <t>s__Veillonella_A magna</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS13_51.fasta</t>
+          <t>label_UMGS13_7.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.8019876782619446</v>
+        <v>1.904006500162071e-08</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1588211470223378</v>
+        <v>0.9684807374841149</v>
       </c>
       <c r="D37" t="n">
-        <v>0.03919117471571759</v>
+        <v>0.03151924347582015</v>
       </c>
       <c r="E37" t="n">
-        <v>0.8019876782619446</v>
+        <v>0.9684807374841149</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>s__Veillonella_A magna</t>
+          <t>s__Veillonella_A sp000431435</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS13_55.fasta</t>
+          <t>label_UMGS13_10.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.248252180702544</v>
+        <v>0.01766707816946726</v>
       </c>
       <c r="C38" t="n">
-        <v>0.6578068957496831</v>
+        <v>0.9823329218304641</v>
       </c>
       <c r="D38" t="n">
-        <v>0.09394092354777268</v>
+        <v>6.862690741883136e-14</v>
       </c>
       <c r="E38" t="n">
-        <v>0.6578068957496831</v>
+        <v>0.9823329218304641</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -5517,44 +4893,44 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS13_60.fasta</t>
+          <t>label_UMGS13_11.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.5912902956886524</v>
+        <v>0.0004034775011857904</v>
       </c>
       <c r="C39" t="n">
-        <v>0.250006970531818</v>
+        <v>0.9991970040604166</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1587027337795297</v>
+        <v>0.0003995184383978259</v>
       </c>
       <c r="E39" t="n">
-        <v>0.5912902956886524</v>
+        <v>0.9991970040604166</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>s__Veillonella_A magna</t>
+          <t>s__Veillonella_A sp000431435</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS13_9.fasta</t>
+          <t>label_UMGS13_17.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4.49526725284461e-09</v>
+        <v>0.0009017714323863966</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9851363226208953</v>
+        <v>0.9990982285672664</v>
       </c>
       <c r="D40" t="n">
-        <v>0.01486367288383743</v>
+        <v>3.472542761969567e-13</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9851363226208953</v>
+        <v>0.9990982285672664</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -5565,20 +4941,20 @@
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS13_13.fasta</t>
+          <t>label_UMGS13_23.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.004860244853889363</v>
+        <v>0.0005405663745972621</v>
       </c>
       <c r="C41" t="n">
-        <v>0.9849600365724631</v>
+        <v>0.998931306201554</v>
       </c>
       <c r="D41" t="n">
-        <v>0.01017971857364755</v>
+        <v>0.0005281274238487097</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9849600365724631</v>
+        <v>0.998931306201554</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -5589,20 +4965,20 @@
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS13_2.fasta</t>
+          <t>label_UMGS13_3.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1.548490657790027e-07</v>
+        <v>0.0007502725120528864</v>
       </c>
       <c r="C42" t="n">
-        <v>0.9905625851012159</v>
+        <v>0.998509344379845</v>
       </c>
       <c r="D42" t="n">
-        <v>0.00943726004971831</v>
+        <v>0.000740383108102007</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9905625851012159</v>
+        <v>0.998509344379845</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -5613,20 +4989,20 @@
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS13_25.fasta</t>
+          <t>label_UMGS13_35.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.003802513743160423</v>
+        <v>0.04870471080150116</v>
       </c>
       <c r="C43" t="n">
-        <v>0.9869490853647545</v>
+        <v>0.9512952891984336</v>
       </c>
       <c r="D43" t="n">
-        <v>0.009248400892085076</v>
+        <v>6.533846872459266e-14</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9869490853647545</v>
+        <v>0.9512952891984336</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -5637,20 +5013,20 @@
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS13_28.fasta</t>
+          <t>label_UMGS13_39.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.007012080042261659</v>
+        <v>0.02539984011666662</v>
       </c>
       <c r="C44" t="n">
-        <v>0.973572941361302</v>
+        <v>0.9746001598826101</v>
       </c>
       <c r="D44" t="n">
-        <v>0.01941497859643631</v>
+        <v>7.232947526646404e-13</v>
       </c>
       <c r="E44" t="n">
-        <v>0.973572941361302</v>
+        <v>0.9746001598826101</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -5661,20 +5037,20 @@
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS13_32.fasta</t>
+          <t>label_UMGS13_44.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.1702592534490101</v>
+        <v>0.04045162669105438</v>
       </c>
       <c r="C45" t="n">
-        <v>0.7847917850832533</v>
+        <v>0.9595483733087748</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0449489614677364</v>
+        <v>1.7082620051721e-13</v>
       </c>
       <c r="E45" t="n">
-        <v>0.7847917850832533</v>
+        <v>0.9595483733087748</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -5685,20 +5061,20 @@
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS13_38.fasta</t>
+          <t>label_UMGS13_52.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.001346266636383686</v>
+        <v>0.04933200318036706</v>
       </c>
       <c r="C46" t="n">
-        <v>0.9902634207559897</v>
+        <v>0.9506679968179863</v>
       </c>
       <c r="D46" t="n">
-        <v>0.008390312607626554</v>
+        <v>1.646700610040907e-12</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9902634207559897</v>
+        <v>0.9506679968179863</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -5709,20 +5085,20 @@
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS13_41.fasta</t>
+          <t>label_UMGS13_56.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.0007359071921991939</v>
+        <v>0.2710609391445399</v>
       </c>
       <c r="C47" t="n">
-        <v>0.9920558237893078</v>
+        <v>0.7289390608552864</v>
       </c>
       <c r="D47" t="n">
-        <v>0.007208269018493022</v>
+        <v>1.738143262856411e-13</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9920558237893078</v>
+        <v>0.7289390608552864</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -5733,20 +5109,20 @@
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS13_46.fasta</t>
+          <t>label_UMGS13_57.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.003196927240083531</v>
+        <v>0.2890987236794026</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9848641061021096</v>
+        <v>0.7109012763183455</v>
       </c>
       <c r="D48" t="n">
-        <v>0.01193896665780685</v>
+        <v>2.251908734088817e-12</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9848641061021096</v>
+        <v>0.7109012763183455</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -5757,44 +5133,44 @@
     <row r="49">
       <c r="A49" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS13_58.fasta</t>
+          <t>label_UMGS13_59.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.08536869080132907</v>
+        <v>0.8375121713988032</v>
       </c>
       <c r="C49" t="n">
-        <v>0.8549714278792973</v>
+        <v>0.1624878286011018</v>
       </c>
       <c r="D49" t="n">
-        <v>0.05965988131937383</v>
+        <v>9.488294721208982e-14</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8549714278792973</v>
+        <v>0.8375121713988032</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>s__Veillonella_A sp000431435</t>
+          <t>s__Veillonella_A magna</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS13_63.fasta</t>
+          <t>label_UMGS13_61.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.948989355249736</v>
+        <v>0.9004883860205268</v>
       </c>
       <c r="C50" t="n">
-        <v>0.01391595529046838</v>
+        <v>0.09951161397939491</v>
       </c>
       <c r="D50" t="n">
-        <v>0.03709468945979553</v>
+        <v>7.829985907642144e-14</v>
       </c>
       <c r="E50" t="n">
-        <v>0.948989355249736</v>
+        <v>0.9004883860205268</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -5805,44 +5181,44 @@
     <row r="51">
       <c r="A51" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS13_7.fasta</t>
+          <t>label_UMGS13_62.fasta</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1.904006500162071e-08</v>
+        <v>0.9576031312533133</v>
       </c>
       <c r="C51" t="n">
-        <v>0.9684807374841149</v>
+        <v>0.04239686874632879</v>
       </c>
       <c r="D51" t="n">
-        <v>0.03151924347582015</v>
+        <v>3.579658352803086e-13</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9684807374841149</v>
+        <v>0.9576031312533133</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>s__Veillonella_A sp000431435</t>
+          <t>s__Veillonella_A magna</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS13_10.fasta</t>
+          <t>label_UMGS13_1.fasta</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01766707816946726</v>
+        <v>7.265985511749232e-07</v>
       </c>
       <c r="C52" t="n">
-        <v>0.9823329218304641</v>
+        <v>0.9983688950727977</v>
       </c>
       <c r="D52" t="n">
-        <v>6.862690741883136e-14</v>
+        <v>0.00163037832865119</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9823329218304641</v>
+        <v>0.9983688950727977</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -5853,20 +5229,20 @@
     <row r="53">
       <c r="A53" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS13_11.fasta</t>
+          <t>label_UMGS13_16.fasta</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.0004034775011857904</v>
+        <v>0.0001301220391944188</v>
       </c>
       <c r="C53" t="n">
-        <v>0.9991970040604166</v>
+        <v>0.9961339834341637</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0003995184383978259</v>
+        <v>0.003735894526641881</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9991970040604166</v>
+        <v>0.9961339834341637</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -5877,20 +5253,20 @@
     <row r="54">
       <c r="A54" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS13_17.fasta</t>
+          <t>label_UMGS13_24.fasta</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.0009017714323863966</v>
+        <v>0.0001801957497794033</v>
       </c>
       <c r="C54" t="n">
-        <v>0.9990982285672664</v>
+        <v>0.9952689421083472</v>
       </c>
       <c r="D54" t="n">
-        <v>3.472542761969567e-13</v>
+        <v>0.004550862141873388</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9990982285672664</v>
+        <v>0.9952689421083472</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -5901,20 +5277,20 @@
     <row r="55">
       <c r="A55" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS13_23.fasta</t>
+          <t>label_UMGS13_26.fasta</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.0005405663745972621</v>
+        <v>2.561127824881041e-05</v>
       </c>
       <c r="C55" t="n">
-        <v>0.998931306201554</v>
+        <v>0.991012256919054</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0005281274238487097</v>
+        <v>0.008962131802697188</v>
       </c>
       <c r="E55" t="n">
-        <v>0.998931306201554</v>
+        <v>0.991012256919054</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -5925,20 +5301,20 @@
     <row r="56">
       <c r="A56" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS13_3.fasta</t>
+          <t>label_UMGS13_34.fasta</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.0007502725120528864</v>
+        <v>0.0001406570045784575</v>
       </c>
       <c r="C56" t="n">
-        <v>0.998509344379845</v>
+        <v>0.9864482342652018</v>
       </c>
       <c r="D56" t="n">
-        <v>0.000740383108102007</v>
+        <v>0.01341110873021981</v>
       </c>
       <c r="E56" t="n">
-        <v>0.998509344379845</v>
+        <v>0.9864482342652018</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -5949,20 +5325,20 @@
     <row r="57">
       <c r="A57" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS13_35.fasta</t>
+          <t>label_UMGS13_37.fasta</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.04870471080150116</v>
+        <v>0.02773810370378355</v>
       </c>
       <c r="C57" t="n">
-        <v>0.9512952891984336</v>
+        <v>0.9573946230554606</v>
       </c>
       <c r="D57" t="n">
-        <v>6.533846872459266e-14</v>
+        <v>0.01486727324075571</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9512952891984336</v>
+        <v>0.9573946230554606</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -5973,20 +5349,20 @@
     <row r="58">
       <c r="A58" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS13_39.fasta</t>
+          <t>label_UMGS13_47.fasta</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.02539984011666662</v>
+        <v>0.01994620897304633</v>
       </c>
       <c r="C58" t="n">
-        <v>0.9746001598826101</v>
+        <v>0.9531392075005884</v>
       </c>
       <c r="D58" t="n">
-        <v>7.232947526646404e-13</v>
+        <v>0.02691458352636514</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9746001598826101</v>
+        <v>0.9531392075005884</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -5997,20 +5373,20 @@
     <row r="59">
       <c r="A59" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS13_44.fasta</t>
+          <t>label_UMGS13_49.fasta</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.04045162669105438</v>
+        <v>0.0001335946419098435</v>
       </c>
       <c r="C59" t="n">
-        <v>0.9595483733087748</v>
+        <v>0.920952732829344</v>
       </c>
       <c r="D59" t="n">
-        <v>1.7082620051721e-13</v>
+        <v>0.07891367252874625</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9595483733087748</v>
+        <v>0.920952732829344</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -6021,20 +5397,20 @@
     <row r="60">
       <c r="A60" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS13_52.fasta</t>
+          <t>label_UMGS13_5.fasta</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.04933200318036706</v>
+        <v>2.960592499456506e-05</v>
       </c>
       <c r="C60" t="n">
-        <v>0.9506679968179863</v>
+        <v>0.9981218811567023</v>
       </c>
       <c r="D60" t="n">
-        <v>1.646700610040907e-12</v>
+        <v>0.001848512918303067</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9506679968179863</v>
+        <v>0.9981218811567023</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -6045,20 +5421,20 @@
     <row r="61">
       <c r="A61" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS13_56.fasta</t>
+          <t>label_UMGS13_53.fasta</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.2710609391445399</v>
+        <v>0.05767736968732436</v>
       </c>
       <c r="C61" t="n">
-        <v>0.7289390608552864</v>
+        <v>0.8794397969052952</v>
       </c>
       <c r="D61" t="n">
-        <v>1.738143262856411e-13</v>
+        <v>0.06288283340738056</v>
       </c>
       <c r="E61" t="n">
-        <v>0.7289390608552864</v>
+        <v>0.8794397969052952</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -6069,20 +5445,20 @@
     <row r="62">
       <c r="A62" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS13_57.fasta</t>
+          <t>label_UMGS13_6.fasta</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.2890987236794026</v>
+        <v>0.0007418646085884869</v>
       </c>
       <c r="C62" t="n">
-        <v>0.7109012763183455</v>
+        <v>0.9968563616395766</v>
       </c>
       <c r="D62" t="n">
-        <v>2.251908734088817e-12</v>
+        <v>0.002401773751834883</v>
       </c>
       <c r="E62" t="n">
-        <v>0.7109012763183455</v>
+        <v>0.9968563616395766</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -6093,358 +5469,22 @@
     <row r="63">
       <c r="A63" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS13_59.fasta</t>
+          <t>label_UMGS13_8.fasta</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.8375121713988032</v>
+        <v>1.266847759395097e-06</v>
       </c>
       <c r="C63" t="n">
-        <v>0.1624878286011018</v>
+        <v>0.9961780865944766</v>
       </c>
       <c r="D63" t="n">
-        <v>9.488294721208982e-14</v>
+        <v>0.003820646557764006</v>
       </c>
       <c r="E63" t="n">
-        <v>0.8375121713988032</v>
+        <v>0.9961780865944766</v>
       </c>
       <c r="F63" t="inlineStr">
-        <is>
-          <t>s__Veillonella_A magna</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS13_61.fasta</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>0.9004883860205268</v>
-      </c>
-      <c r="C64" t="n">
-        <v>0.09951161397939491</v>
-      </c>
-      <c r="D64" t="n">
-        <v>7.829985907642144e-14</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0.9004883860205268</v>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>s__Veillonella_A magna</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS13_62.fasta</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>0.9576031312533133</v>
-      </c>
-      <c r="C65" t="n">
-        <v>0.04239686874632879</v>
-      </c>
-      <c r="D65" t="n">
-        <v>3.579658352803086e-13</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0.9576031312533133</v>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>s__Veillonella_A magna</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS13_1.fasta</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>7.265985511749232e-07</v>
-      </c>
-      <c r="C66" t="n">
-        <v>0.9983688950727977</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.00163037832865119</v>
-      </c>
-      <c r="E66" t="n">
-        <v>0.9983688950727977</v>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>s__Veillonella_A sp000431435</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS13_16.fasta</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>0.0001301220391944188</v>
-      </c>
-      <c r="C67" t="n">
-        <v>0.9961339834341637</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.003735894526641881</v>
-      </c>
-      <c r="E67" t="n">
-        <v>0.9961339834341637</v>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>s__Veillonella_A sp000431435</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS13_24.fasta</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>0.0001801957497794033</v>
-      </c>
-      <c r="C68" t="n">
-        <v>0.9952689421083472</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.004550862141873388</v>
-      </c>
-      <c r="E68" t="n">
-        <v>0.9952689421083472</v>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>s__Veillonella_A sp000431435</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS13_26.fasta</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>2.561127824881041e-05</v>
-      </c>
-      <c r="C69" t="n">
-        <v>0.991012256919054</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.008962131802697188</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0.991012256919054</v>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>s__Veillonella_A sp000431435</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS13_34.fasta</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>0.0001406570045784575</v>
-      </c>
-      <c r="C70" t="n">
-        <v>0.9864482342652018</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.01341110873021981</v>
-      </c>
-      <c r="E70" t="n">
-        <v>0.9864482342652018</v>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>s__Veillonella_A sp000431435</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS13_37.fasta</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>0.02773810370378355</v>
-      </c>
-      <c r="C71" t="n">
-        <v>0.9573946230554606</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.01486727324075571</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0.9573946230554606</v>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>s__Veillonella_A sp000431435</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS13_47.fasta</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>0.01994620897304633</v>
-      </c>
-      <c r="C72" t="n">
-        <v>0.9531392075005884</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.02691458352636514</v>
-      </c>
-      <c r="E72" t="n">
-        <v>0.9531392075005884</v>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>s__Veillonella_A sp000431435</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS13_49.fasta</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>0.0001335946419098435</v>
-      </c>
-      <c r="C73" t="n">
-        <v>0.920952732829344</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.07891367252874625</v>
-      </c>
-      <c r="E73" t="n">
-        <v>0.920952732829344</v>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>s__Veillonella_A sp000431435</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS13_5.fasta</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>2.960592499456506e-05</v>
-      </c>
-      <c r="C74" t="n">
-        <v>0.9981218811567023</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.001848512918303067</v>
-      </c>
-      <c r="E74" t="n">
-        <v>0.9981218811567023</v>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>s__Veillonella_A sp000431435</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS13_53.fasta</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>0.05767736968732436</v>
-      </c>
-      <c r="C75" t="n">
-        <v>0.8794397969052952</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.06288283340738056</v>
-      </c>
-      <c r="E75" t="n">
-        <v>0.8794397969052952</v>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>s__Veillonella_A sp000431435</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS13_6.fasta</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>0.0007418646085884869</v>
-      </c>
-      <c r="C76" t="n">
-        <v>0.9968563616395766</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.002401773751834883</v>
-      </c>
-      <c r="E76" t="n">
-        <v>0.9968563616395766</v>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>s__Veillonella_A sp000431435</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS13_8.fasta</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>1.266847759395097e-06</v>
-      </c>
-      <c r="C77" t="n">
-        <v>0.9961780865944766</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.003820646557764006</v>
-      </c>
-      <c r="E77" t="n">
-        <v>0.9961780865944766</v>
-      </c>
-      <c r="F77" t="inlineStr">
         <is>
           <t>s__Veillonella_A sp000431435</t>
         </is>
@@ -6461,7 +5501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6648,20 +5688,20 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS823_12.fasta</t>
+          <t>label_UMGS823_0.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.003081368417149209</v>
+        <v>0.000208678837829742</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0169755469023106</v>
+        <v>0.02512859090189877</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9799430846805403</v>
+        <v>0.9746627302602715</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9799430846805403</v>
+        <v>0.9746627302602715</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -6672,20 +5712,20 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS823_13.fasta</t>
+          <t>label_UMGS823_14.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01903191386705363</v>
+        <v>0.0009058234850862481</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01429074612090008</v>
+        <v>0.07189322595286531</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9666773400120462</v>
+        <v>0.9272009505620485</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9666773400120462</v>
+        <v>0.9272009505620485</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -6696,20 +5736,20 @@
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS823_19.fasta</t>
+          <t>label_UMGS823_24.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.004975514819244456</v>
+        <v>0.01312448216159399</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1975839457112085</v>
+        <v>0.1608530145781073</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7974405394695471</v>
+        <v>0.8260225032602987</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7974405394695471</v>
+        <v>0.8260225032602987</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -6720,20 +5760,20 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS823_22.fasta</t>
+          <t>label_UMGS823_25.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1030605522710881</v>
+        <v>0.02063405471539029</v>
       </c>
       <c r="C11" t="n">
-        <v>0.05388104085420219</v>
+        <v>0.1676884412327286</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8430584068747097</v>
+        <v>0.8116775040518812</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8430584068747097</v>
+        <v>0.8116775040518812</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -6744,20 +5784,20 @@
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS823_23.fasta</t>
+          <t>label_UMGS823_9.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1198928084791448</v>
+        <v>0.001594251020706131</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003905257113386272</v>
+        <v>0.07100578931569113</v>
       </c>
       <c r="D12" t="n">
-        <v>0.876201934407469</v>
+        <v>0.9273999596636028</v>
       </c>
       <c r="E12" t="n">
-        <v>0.876201934407469</v>
+        <v>0.9273999596636028</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -6768,20 +5808,20 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS823_26.fasta</t>
+          <t>label_UMGS823_10.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02853868781857184</v>
+        <v>0.007729822250452218</v>
       </c>
       <c r="C13" t="n">
-        <v>0.06648222139907291</v>
+        <v>0.02307699439982424</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9049790907823553</v>
+        <v>0.9691931833497236</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9049790907823553</v>
+        <v>0.9691931833497236</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -6792,20 +5832,20 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS823_0.fasta</t>
+          <t>label_UMGS823_11.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.000208678837829742</v>
+        <v>0.005071673048660732</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02512859090189877</v>
+        <v>0.04683515229834993</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9746627302602715</v>
+        <v>0.9480931746529893</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9746627302602715</v>
+        <v>0.9480931746529893</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -6816,20 +5856,20 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS823_14.fasta</t>
+          <t>label_UMGS823_16.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0009058234850862481</v>
+        <v>0.04636246728849185</v>
       </c>
       <c r="C15" t="n">
-        <v>0.07189322595286531</v>
+        <v>0.1021728912259736</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9272009505620485</v>
+        <v>0.8514646414855345</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9272009505620485</v>
+        <v>0.8514646414855345</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -6840,20 +5880,20 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS823_24.fasta</t>
+          <t>label_UMGS823_21.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01312448216159399</v>
+        <v>0.01943874013205379</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1608530145781073</v>
+        <v>0.1416617007939984</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8260225032602987</v>
+        <v>0.8388995590739479</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8260225032602987</v>
+        <v>0.8388995590739479</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -6864,20 +5904,20 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS823_25.fasta</t>
+          <t>label_UMGS823_4.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02063405471539029</v>
+        <v>0.001774386131465434</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1676884412327286</v>
+        <v>0.02563242166969162</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8116775040518812</v>
+        <v>0.972593192198843</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8116775040518812</v>
+        <v>0.972593192198843</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -6888,20 +5928,20 @@
     <row r="18">
       <c r="A18" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS823_9.fasta</t>
+          <t>label_UMGS823_5.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.001594251020706131</v>
+        <v>0.01680536421690093</v>
       </c>
       <c r="C18" t="n">
-        <v>0.07100578931569113</v>
+        <v>0.04543244608129537</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9273999596636028</v>
+        <v>0.9377621897018037</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9273999596636028</v>
+        <v>0.9377621897018037</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -6912,20 +5952,20 @@
     <row r="19">
       <c r="A19" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS823_10.fasta</t>
+          <t>label_UMGS823_7.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.007729822250452218</v>
+        <v>0.02569305751324399</v>
       </c>
       <c r="C19" t="n">
-        <v>0.02307699439982424</v>
+        <v>0.03661297671800618</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9691931833497236</v>
+        <v>0.9376939657687497</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9691931833497236</v>
+        <v>0.9376939657687497</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -6936,20 +5976,20 @@
     <row r="20">
       <c r="A20" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS823_11.fasta</t>
+          <t>label_UMGS823_18.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.005071673048660732</v>
+        <v>0.000117479298194603</v>
       </c>
       <c r="C20" t="n">
-        <v>0.04683515229834993</v>
+        <v>0.005644160483387248</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9480931746529893</v>
+        <v>0.9942383602184182</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9480931746529893</v>
+        <v>0.9942383602184182</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -6960,20 +6000,20 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS823_16.fasta</t>
+          <t>label_UMGS823_20.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.04636246728849185</v>
+        <v>0.004134560301770608</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1021728912259736</v>
+        <v>0.001318808488468019</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8514646414855345</v>
+        <v>0.9945466312097614</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8514646414855345</v>
+        <v>0.9945466312097614</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -6984,44 +6024,44 @@
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS823_21.fasta</t>
+          <t>label_UMGS823_27.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01943874013205379</v>
+        <v>0.9963069636035972</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1416617007939984</v>
+        <v>0.003693036396380537</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8388995590739479</v>
+        <v>2.219815215963355e-14</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8388995590739479</v>
+        <v>0.9963069636035972</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>s__Veillonella_A sp900545795</t>
+          <t>s__Veillonella_A magna</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS823_4.fasta</t>
+          <t>label_UMGS823_8.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.001774386131465434</v>
+        <v>0.0006756471678954596</v>
       </c>
       <c r="C23" t="n">
-        <v>0.02563242166969162</v>
+        <v>0.0005100660576398792</v>
       </c>
       <c r="D23" t="n">
-        <v>0.972593192198843</v>
+        <v>0.9988142867744646</v>
       </c>
       <c r="E23" t="n">
-        <v>0.972593192198843</v>
+        <v>0.9988142867744646</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -7032,20 +6072,20 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS823_5.fasta</t>
+          <t>label_UMGS823_1.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01680536421690093</v>
+        <v>0.002982229463862897</v>
       </c>
       <c r="C24" t="n">
-        <v>0.04543244608129537</v>
+        <v>0.04019170929874781</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9377621897018037</v>
+        <v>0.9568260612373893</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9377621897018037</v>
+        <v>0.9568260612373893</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -7056,20 +6096,20 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS823_7.fasta</t>
+          <t>label_UMGS823_15.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.02569305751324399</v>
+        <v>0.002467817477735787</v>
       </c>
       <c r="C25" t="n">
-        <v>0.03661297671800618</v>
+        <v>0.03301164872060338</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9376939657687497</v>
+        <v>0.9645205338016608</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9376939657687497</v>
+        <v>0.9645205338016608</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -7080,20 +6120,20 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS823_18.fasta</t>
+          <t>label_UMGS823_17.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.000117479298194603</v>
+        <v>0.0763012914574398</v>
       </c>
       <c r="C26" t="n">
-        <v>0.005644160483387248</v>
+        <v>0.1210872528813715</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9942383602184182</v>
+        <v>0.8026114556611886</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9942383602184182</v>
+        <v>0.8026114556611886</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -7104,20 +6144,20 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS823_20.fasta</t>
+          <t>label_UMGS823_2.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.004134560301770608</v>
+        <v>0.000581882765528483</v>
       </c>
       <c r="C27" t="n">
-        <v>0.001318808488468019</v>
+        <v>0.02510367357734232</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9945466312097614</v>
+        <v>0.9743144436571293</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9945466312097614</v>
+        <v>0.9743144436571293</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -7128,190 +6168,46 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS823_27.fasta</t>
+          <t>label_UMGS823_3.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.9963069636035972</v>
+        <v>0.0007154976108209416</v>
       </c>
       <c r="C28" t="n">
-        <v>0.003693036396380537</v>
+        <v>0.01596482129970146</v>
       </c>
       <c r="D28" t="n">
-        <v>2.219815215963355e-14</v>
+        <v>0.9833196810894776</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9963069636035972</v>
+        <v>0.9833196810894776</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>s__Veillonella_A magna</t>
+          <t>s__Veillonella_A sp900545795</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS823_8.fasta</t>
+          <t>label_UMGS823_6.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.0006756471678954596</v>
+        <v>0.01811734941649052</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0005100660576398792</v>
+        <v>0.1127760435946724</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9988142867744646</v>
+        <v>0.869106606988837</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9988142867744646</v>
+        <v>0.869106606988837</v>
       </c>
       <c r="F29" t="inlineStr">
-        <is>
-          <t>s__Veillonella_A sp900545795</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS823_1.fasta</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>0.002982229463862897</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.04019170929874781</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.9568260612373893</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.9568260612373893</v>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>s__Veillonella_A sp900545795</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS823_15.fasta</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0.002467817477735787</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.03301164872060338</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.9645205338016608</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.9645205338016608</v>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>s__Veillonella_A sp900545795</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS823_17.fasta</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>0.0763012914574398</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.1210872528813715</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.8026114556611886</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.8026114556611886</v>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>s__Veillonella_A sp900545795</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS823_2.fasta</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>0.000581882765528483</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.02510367357734232</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.9743144436571293</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.9743144436571293</v>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>s__Veillonella_A sp900545795</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS823_3.fasta</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>0.0007154976108209416</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.01596482129970146</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.9833196810894776</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.9833196810894776</v>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>s__Veillonella_A sp900545795</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS823_6.fasta</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>0.01811734941649052</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.1127760435946724</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.869106606988837</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.869106606988837</v>
-      </c>
-      <c r="F35" t="inlineStr">
         <is>
           <t>s__Veillonella_A sp900545795</t>
         </is>
